--- a/public/reports/payroll.xlsx
+++ b/public/reports/payroll.xlsx
@@ -1452,6 +1452,1161 @@
     <t>juniarsaputra98@gmail.com</t>
   </si>
   <si>
+    <t>Wahyudi Prajanto</t>
+  </si>
+  <si>
+    <t>'3275112006870003</t>
+  </si>
+  <si>
+    <t>prajantowahyudi@gmail.com</t>
+  </si>
+  <si>
+    <t>Briyan Van Reza</t>
+  </si>
+  <si>
+    <t>'3212241909920001</t>
+  </si>
+  <si>
+    <t>rezavanbryan@gmail.com</t>
+  </si>
+  <si>
+    <t>SIFA FAUZIAH</t>
+  </si>
+  <si>
+    <t>'3671115909990009</t>
+  </si>
+  <si>
+    <t>2024-08-26</t>
+  </si>
+  <si>
+    <t>sifa160999@gmail.com</t>
+  </si>
+  <si>
+    <t>Farhan Aziz</t>
+  </si>
+  <si>
+    <t>'3175043007030005</t>
+  </si>
+  <si>
+    <t>2024-09-19</t>
+  </si>
+  <si>
+    <t>farhanaziz974@gmail.com</t>
+  </si>
+  <si>
+    <t>SATRIA MARHADI</t>
+  </si>
+  <si>
+    <t>'3172020203980006</t>
+  </si>
+  <si>
+    <t>satriamarhadi98@gmail.com</t>
+  </si>
+  <si>
+    <t>Raju Metha</t>
+  </si>
+  <si>
+    <t>'1605071607970002</t>
+  </si>
+  <si>
+    <t>rajumetharaju16@gmail.com</t>
+  </si>
+  <si>
+    <t>Muhamad Hermawan</t>
+  </si>
+  <si>
+    <t>'3202260810880001</t>
+  </si>
+  <si>
+    <t>Danru</t>
+  </si>
+  <si>
+    <t>dheonhermawan@gmail.com</t>
+  </si>
+  <si>
+    <t>Arief Sanjaya</t>
+  </si>
+  <si>
+    <t>'3201022504910002</t>
+  </si>
+  <si>
+    <t>Ariefsanjaya207@gmail.com</t>
+  </si>
+  <si>
+    <t>gilang Dita Gita persada</t>
+  </si>
+  <si>
+    <t>'3276022001880005</t>
+  </si>
+  <si>
+    <t>gilang.dita@gmail.com</t>
+  </si>
+  <si>
+    <t>SUPRIYANTO</t>
+  </si>
+  <si>
+    <t>'1808071010940004</t>
+  </si>
+  <si>
+    <t>ianv60737@gmail.com</t>
+  </si>
+  <si>
+    <t>Agung Wahyudi</t>
+  </si>
+  <si>
+    <t>'1207020204940003</t>
+  </si>
+  <si>
+    <t>agungmalik1994@gmail.com</t>
+  </si>
+  <si>
+    <t>Agung Gunawan</t>
+  </si>
+  <si>
+    <t>'3604022903010001</t>
+  </si>
+  <si>
+    <t>Gagung2903@gmail.com</t>
+  </si>
+  <si>
+    <t>Mukti mulyana</t>
+  </si>
+  <si>
+    <t>'3206120112980001</t>
+  </si>
+  <si>
+    <t>muktimulyana01@gmail.com</t>
+  </si>
+  <si>
+    <t>TEGAR RUDI ADI PRABOWO</t>
+  </si>
+  <si>
+    <t>'3309112911030004</t>
+  </si>
+  <si>
+    <t>tegarrudiap@gmail.com</t>
+  </si>
+  <si>
+    <t>AGUS TUPANA</t>
+  </si>
+  <si>
+    <t>'3603121808700001</t>
+  </si>
+  <si>
+    <t>SYNERGI MULTI DAYA PRATAMA PT</t>
+  </si>
+  <si>
+    <t>2019-04-16</t>
+  </si>
+  <si>
+    <t>topanagus804@gmail.com</t>
+  </si>
+  <si>
+    <t>SANUSI</t>
+  </si>
+  <si>
+    <t>'3603271208990005</t>
+  </si>
+  <si>
+    <t>2024-01-24</t>
+  </si>
+  <si>
+    <t>sanusiparis123@gmail.com</t>
+  </si>
+  <si>
+    <t>DEBY MARYADI</t>
+  </si>
+  <si>
+    <t>'3175010303860001</t>
+  </si>
+  <si>
+    <t>MIMARU</t>
+  </si>
+  <si>
+    <t>2024-07-10</t>
+  </si>
+  <si>
+    <t>debimaryadi01@gmail.com</t>
+  </si>
+  <si>
+    <t>Angga</t>
+  </si>
+  <si>
+    <t>'3172061905960003</t>
+  </si>
+  <si>
+    <t>anggarachman50@gmail.com</t>
+  </si>
+  <si>
+    <t>Bahrudin</t>
+  </si>
+  <si>
+    <t>'3604332002990001</t>
+  </si>
+  <si>
+    <t>bahar.udin200299@gmail.com</t>
+  </si>
+  <si>
+    <t>Ridwan abdulah</t>
+  </si>
+  <si>
+    <t>'3205051902970002</t>
+  </si>
+  <si>
+    <t>abdulahridwan633@gmail.com</t>
+  </si>
+  <si>
+    <t>Riski fajar lestanto</t>
+  </si>
+  <si>
+    <t>'3301031105970003</t>
+  </si>
+  <si>
+    <t>HAUS CIKUPA</t>
+  </si>
+  <si>
+    <t>fajarriski568@gmail.com</t>
+  </si>
+  <si>
+    <t>Marsell</t>
+  </si>
+  <si>
+    <t>'3603131108030004</t>
+  </si>
+  <si>
+    <t>Project Leader ( Danru )</t>
+  </si>
+  <si>
+    <t>SUPRANUSA</t>
+  </si>
+  <si>
+    <t>megandomani24@gmail.com</t>
+  </si>
+  <si>
+    <t>Ahmad Ripai</t>
+  </si>
+  <si>
+    <t>'3201220308990003</t>
+  </si>
+  <si>
+    <t>2024-11-29</t>
+  </si>
+  <si>
+    <t>ahmadpai7011@gmail.com</t>
+  </si>
+  <si>
+    <t>MARKUS SATRIA WIJAYA</t>
+  </si>
+  <si>
+    <t>'1608010112020002</t>
+  </si>
+  <si>
+    <t>IRON EAGLE ENERGY</t>
+  </si>
+  <si>
+    <t>ricardomarkus78@gmail.com</t>
+  </si>
+  <si>
+    <t>Muhamad Rafael</t>
+  </si>
+  <si>
+    <t>'3275030612020027</t>
+  </si>
+  <si>
+    <t>erlanggarafael06@gmail.com</t>
+  </si>
+  <si>
+    <t>FADLA IKLILA</t>
+  </si>
+  <si>
+    <t>'3327012308030001</t>
+  </si>
+  <si>
+    <t>2024-12-06</t>
+  </si>
+  <si>
+    <t>fadlabae123@gmail.com</t>
+  </si>
+  <si>
+    <t>Aji Prasojo</t>
+  </si>
+  <si>
+    <t>'3216081310930002</t>
+  </si>
+  <si>
+    <t>buwonoaji574@gmail.com</t>
+  </si>
+  <si>
+    <t>JOKO MULYONO</t>
+  </si>
+  <si>
+    <t>'3306022504970002</t>
+  </si>
+  <si>
+    <t>ADMIN, DANRU</t>
+  </si>
+  <si>
+    <t>jokomulyono081@gmail.com</t>
+  </si>
+  <si>
+    <t>ANA MARIA SOFIANA</t>
+  </si>
+  <si>
+    <t>'3173014105941004</t>
+  </si>
+  <si>
+    <t>anamariasofiana21@gmail.com</t>
+  </si>
+  <si>
+    <t>PAHRUROJI</t>
+  </si>
+  <si>
+    <t>'3602171804030001</t>
+  </si>
+  <si>
+    <t>kangpahruroji19@gmail.com</t>
+  </si>
+  <si>
+    <t>ANDRES FEBRIAN</t>
+  </si>
+  <si>
+    <t>'3602181002030005</t>
+  </si>
+  <si>
+    <t>andresfebrian99@gmail.com</t>
+  </si>
+  <si>
+    <t>Mayang meisina</t>
+  </si>
+  <si>
+    <t>'1403096805030002</t>
+  </si>
+  <si>
+    <t>2024-10-15</t>
+  </si>
+  <si>
+    <t>mayangmeisina05@gmail.com</t>
+  </si>
+  <si>
+    <t>RIZKI FAJAR KURNIAWAN</t>
+  </si>
+  <si>
+    <t>'3275091802910007</t>
+  </si>
+  <si>
+    <t>rizkifajarkurniawan1@gmail.com</t>
+  </si>
+  <si>
+    <t>ENDAH SUCI</t>
+  </si>
+  <si>
+    <t>'3175086904891001</t>
+  </si>
+  <si>
+    <t>endahsuci838@gmail.com</t>
+  </si>
+  <si>
+    <t>TARISA MALINDA R</t>
+  </si>
+  <si>
+    <t>'1801065105050002</t>
+  </si>
+  <si>
+    <t>2024-06-12</t>
+  </si>
+  <si>
+    <t>tarisamelinda8@gmail.com</t>
+  </si>
+  <si>
+    <t>IRFAN ZIDNI</t>
+  </si>
+  <si>
+    <t>'3216181503970008</t>
+  </si>
+  <si>
+    <t>irfanzidni006@gmail.com</t>
+  </si>
+  <si>
+    <t>DAMIANUS MADU</t>
+  </si>
+  <si>
+    <t>'5310061504950006</t>
+  </si>
+  <si>
+    <t>IBIS JAKARTA RADEN SALEH HOTEL</t>
+  </si>
+  <si>
+    <t>2021-12-17</t>
+  </si>
+  <si>
+    <t>damianusmadu428@gmail.com</t>
+  </si>
+  <si>
+    <t>ZOEL ARIES GEA</t>
+  </si>
+  <si>
+    <t>'3603161504930006</t>
+  </si>
+  <si>
+    <t>2024-03-04</t>
+  </si>
+  <si>
+    <t>zoelariesgea93@gmail.com</t>
+  </si>
+  <si>
+    <t>RAHMAT CANDRA SUSILO</t>
+  </si>
+  <si>
+    <t>'3520122901030003</t>
+  </si>
+  <si>
+    <t>MEDAN BIOENERGY NUSANTARA, PT</t>
+  </si>
+  <si>
+    <t>2024-01-05</t>
+  </si>
+  <si>
+    <t>rahmatcandra.suailo@gmail.com</t>
+  </si>
+  <si>
+    <t>AHYAR MAULIDIN</t>
+  </si>
+  <si>
+    <t>'3671011807970004</t>
+  </si>
+  <si>
+    <t>2022-04-26</t>
+  </si>
+  <si>
+    <t>ahyarmaulidin2021@gmail.com</t>
+  </si>
+  <si>
+    <t>Muhammad Rizky abdurahman</t>
+  </si>
+  <si>
+    <t>'3173041909990003</t>
+  </si>
+  <si>
+    <t>mrabdurahman1999@gmail.com</t>
+  </si>
+  <si>
+    <t>FAUZAN ALFARISI</t>
+  </si>
+  <si>
+    <t>'3172040803950012</t>
+  </si>
+  <si>
+    <t>2021-05-20</t>
+  </si>
+  <si>
+    <t>fauzanalfarisi95@gmail.com</t>
+  </si>
+  <si>
+    <t>HERU YUSTIAWAN</t>
+  </si>
+  <si>
+    <t>'1805272409000001</t>
+  </si>
+  <si>
+    <t>heruyustiawan@gmail.com</t>
+  </si>
+  <si>
+    <t>APRILIANTO</t>
+  </si>
+  <si>
+    <t>'3173043004920005</t>
+  </si>
+  <si>
+    <t>2023-09-20</t>
+  </si>
+  <si>
+    <t>glendot30@gmail.com</t>
+  </si>
+  <si>
+    <t>M FARIEZ ABDALLAH SIMATUPANG</t>
+  </si>
+  <si>
+    <t>'1207232802890001</t>
+  </si>
+  <si>
+    <t>2022-03-23</t>
+  </si>
+  <si>
+    <t>faridvivo65@gmail.com</t>
+  </si>
+  <si>
+    <t>RAHMAT MAULANA NOVISA</t>
+  </si>
+  <si>
+    <t>'3202141011000002</t>
+  </si>
+  <si>
+    <t>2023-05-19</t>
+  </si>
+  <si>
+    <t>maulananovisa93@gmail.com</t>
+  </si>
+  <si>
+    <t>FAKHRIZAL</t>
+  </si>
+  <si>
+    <t>'1109040606930002</t>
+  </si>
+  <si>
+    <t>2023-10-31</t>
+  </si>
+  <si>
+    <t>fahry88888888@gmail.com</t>
+  </si>
+  <si>
+    <t>SANGKUT SAPARI</t>
+  </si>
+  <si>
+    <t>'1605070403960005</t>
+  </si>
+  <si>
+    <t>2024-02-19</t>
+  </si>
+  <si>
+    <t>sangkutsapari959@gmail.com</t>
+  </si>
+  <si>
+    <t>APRIZAL SAPUTRA</t>
+  </si>
+  <si>
+    <t>'3175051904980001</t>
+  </si>
+  <si>
+    <t>2024-03-10</t>
+  </si>
+  <si>
+    <t>aprizalsaputra019@gmail.com</t>
+  </si>
+  <si>
+    <t>HARY BAROCHA</t>
+  </si>
+  <si>
+    <t>'3173032502940003</t>
+  </si>
+  <si>
+    <t>Barochahary@gmail.com</t>
+  </si>
+  <si>
+    <t>MUHAMAD JAY YADI</t>
+  </si>
+  <si>
+    <t>'3328111312020008</t>
+  </si>
+  <si>
+    <t>jayadikamplenk020@gmail.com</t>
+  </si>
+  <si>
+    <t>MUHAMMAD KHOLISIL MUKHLIS</t>
+  </si>
+  <si>
+    <t>'3172032106041002</t>
+  </si>
+  <si>
+    <t>mkmukhlis21@gmail.com</t>
+  </si>
+  <si>
+    <t>Pandu setia pratama</t>
+  </si>
+  <si>
+    <t>'1611040606030004</t>
+  </si>
+  <si>
+    <t>2024-08-05</t>
+  </si>
+  <si>
+    <t>pandu0606003@gmail.com</t>
+  </si>
+  <si>
+    <t>Ratno Wijaya</t>
+  </si>
+  <si>
+    <t>'3171033012870005</t>
+  </si>
+  <si>
+    <t>ratnowijaya33@gmail.com</t>
+  </si>
+  <si>
+    <t>Muhammad Nur Yahya Furqon</t>
+  </si>
+  <si>
+    <t>'3603112904960001</t>
+  </si>
+  <si>
+    <t>furqonyahya29@gmail.com</t>
+  </si>
+  <si>
+    <t>Fransiskus Rudney Godjin</t>
+  </si>
+  <si>
+    <t>'5306032201950001</t>
+  </si>
+  <si>
+    <t>2024-11-25</t>
+  </si>
+  <si>
+    <t>fransiskusrudney@gmail.com</t>
+  </si>
+  <si>
+    <t>NURMAN</t>
+  </si>
+  <si>
+    <t>'3173042509900002</t>
+  </si>
+  <si>
+    <t>IPEKA PLUIT YAYASAN</t>
+  </si>
+  <si>
+    <t>2021-07-29</t>
+  </si>
+  <si>
+    <t>nurmanbadboy@gmail.com</t>
+  </si>
+  <si>
+    <t>DWI RATMONO</t>
+  </si>
+  <si>
+    <t>'3301011907820003</t>
+  </si>
+  <si>
+    <t>2021-07-30</t>
+  </si>
+  <si>
+    <t>dwiroland163@gmail.com</t>
+  </si>
+  <si>
+    <t>ANDIKA SAPUTRA</t>
+  </si>
+  <si>
+    <t>'3171072505030005</t>
+  </si>
+  <si>
+    <t>2023-08-04</t>
+  </si>
+  <si>
+    <t>andikasaputra250503@gmail.com</t>
+  </si>
+  <si>
+    <t>ANINNABAIN</t>
+  </si>
+  <si>
+    <t>'3376043105970002</t>
+  </si>
+  <si>
+    <t>2022-06-01</t>
+  </si>
+  <si>
+    <t>abainsquad74@gmail.com</t>
+  </si>
+  <si>
+    <t>RIYAN RIVANO</t>
+  </si>
+  <si>
+    <t>'3173012705000003</t>
+  </si>
+  <si>
+    <t>riyanrivano7@gmail.com</t>
+  </si>
+  <si>
+    <t>ARIF RAHMAN ALWI</t>
+  </si>
+  <si>
+    <t>'3174090710010003</t>
+  </si>
+  <si>
+    <t>2022-06-27</t>
+  </si>
+  <si>
+    <t>arifalwi16538@gmail.com</t>
+  </si>
+  <si>
+    <t>ILHAM WAHYUDI</t>
+  </si>
+  <si>
+    <t>'3173040602910001</t>
+  </si>
+  <si>
+    <t>Muningsih768@gmail.com</t>
+  </si>
+  <si>
+    <t>DEWI ARUMSIH</t>
+  </si>
+  <si>
+    <t>'3306046202990001</t>
+  </si>
+  <si>
+    <t>dewiarumsih0222@gmail.com</t>
+  </si>
+  <si>
+    <t>AHMAD JUNAEDI</t>
+  </si>
+  <si>
+    <t>'3201102505990003</t>
+  </si>
+  <si>
+    <t>ahmadjunaedi2505@gmail.com</t>
+  </si>
+  <si>
+    <t>MAXY NGANTUNG</t>
+  </si>
+  <si>
+    <t>'7106030403810003</t>
+  </si>
+  <si>
+    <t>muhammadmaxi1200@gmail.com</t>
+  </si>
+  <si>
+    <t>Sugito</t>
+  </si>
+  <si>
+    <t>'3329092308010002</t>
+  </si>
+  <si>
+    <t>sugito24516@gmail.com</t>
+  </si>
+  <si>
+    <t>SAIPULLOH AMIN</t>
+  </si>
+  <si>
+    <t>'3172022606780003</t>
+  </si>
+  <si>
+    <t>2021-08-30</t>
+  </si>
+  <si>
+    <t>riskaramadhaniputri27@gmail.com</t>
+  </si>
+  <si>
+    <t>AGAM HANAFI</t>
+  </si>
+  <si>
+    <t>'3201141603030004</t>
+  </si>
+  <si>
+    <t>2023-04-13</t>
+  </si>
+  <si>
+    <t>hanafiagam0303@gmail.com</t>
+  </si>
+  <si>
+    <t>EFRISA INTAN AGUSTINA</t>
+  </si>
+  <si>
+    <t>'1608166008000001</t>
+  </si>
+  <si>
+    <t>efrisaintanagustina08@gmail.com</t>
+  </si>
+  <si>
+    <t>CICA WILANTIKA</t>
+  </si>
+  <si>
+    <t>'1808144104050001</t>
+  </si>
+  <si>
+    <t>2023-02-04</t>
+  </si>
+  <si>
+    <t>cicawilantika@gmail.com</t>
+  </si>
+  <si>
+    <t>MUHAMMAD AL IRSAN</t>
+  </si>
+  <si>
+    <t>'1801061105970003</t>
+  </si>
+  <si>
+    <t>irsantorneto@gmail.com</t>
+  </si>
+  <si>
+    <t>FAISAL AMIR</t>
+  </si>
+  <si>
+    <t>'1806090306950002</t>
+  </si>
+  <si>
+    <t>citrazanetta22@gmail.com</t>
+  </si>
+  <si>
+    <t>ARIF MAULANA MALIK</t>
+  </si>
+  <si>
+    <t>'1801210506010001</t>
+  </si>
+  <si>
+    <t>arifmaulanamalik22@gmail.com</t>
+  </si>
+  <si>
+    <t>AGUNG WILDAN NURYAN</t>
+  </si>
+  <si>
+    <t>'3203061502030005</t>
+  </si>
+  <si>
+    <t>agungwildan459@gmail.com</t>
+  </si>
+  <si>
+    <t>AGAM SETYA HERMANSYAH</t>
+  </si>
+  <si>
+    <t>'3203061008000010</t>
+  </si>
+  <si>
+    <t>agamsetya10@gmail.com</t>
+  </si>
+  <si>
+    <t>DENI PRATOMO</t>
+  </si>
+  <si>
+    <t>'3674073112940001</t>
+  </si>
+  <si>
+    <t>2022-12-14</t>
+  </si>
+  <si>
+    <t>denipratomo39@gmail.com</t>
+  </si>
+  <si>
+    <t>ANDI FARIS SUSANTO</t>
+  </si>
+  <si>
+    <t>'3302030609850002</t>
+  </si>
+  <si>
+    <t>2024-01-18</t>
+  </si>
+  <si>
+    <t>farisandi345@gmail.com</t>
+  </si>
+  <si>
+    <t>ANDIKA NURROHMAN WAHID</t>
+  </si>
+  <si>
+    <t>'3173062110990002</t>
+  </si>
+  <si>
+    <t>andikawahid1999@gmail.com</t>
+  </si>
+  <si>
+    <t>DADAN SUPRIATNA</t>
+  </si>
+  <si>
+    <t>'3213261008980001</t>
+  </si>
+  <si>
+    <t>supriatnadadan072@gmail.com</t>
+  </si>
+  <si>
+    <t>TEGUH ADRIANTO</t>
+  </si>
+  <si>
+    <t>'1608130108010001</t>
+  </si>
+  <si>
+    <t>teguhadrianto2001@gmail.com</t>
+  </si>
+  <si>
+    <t>SILVIA AGUSTIN</t>
+  </si>
+  <si>
+    <t>'3329034308000002</t>
+  </si>
+  <si>
+    <t>silviaagustin426@gmail.com</t>
+  </si>
+  <si>
+    <t>DADANG</t>
+  </si>
+  <si>
+    <t>'1608110107830003</t>
+  </si>
+  <si>
+    <t>astiakila@gmail.com</t>
+  </si>
+  <si>
+    <t>MUHAMMAD DZUHURYANSYAH</t>
+  </si>
+  <si>
+    <t>'3174062210010003</t>
+  </si>
+  <si>
+    <t>m.dzuhur36@gmail.com</t>
+  </si>
+  <si>
+    <t>ANTON SAPUTRA</t>
+  </si>
+  <si>
+    <t>'1809061109960004</t>
+  </si>
+  <si>
+    <t>antonsaputra61211@gmail.com</t>
+  </si>
+  <si>
+    <t>LUINDA PUTRI</t>
+  </si>
+  <si>
+    <t>'1608186109040001</t>
+  </si>
+  <si>
+    <t>luindaputri@gmail.com</t>
+  </si>
+  <si>
+    <t>RIAN SAPUTRA</t>
+  </si>
+  <si>
+    <t>'1611040408950005</t>
+  </si>
+  <si>
+    <t>2023-02-06</t>
+  </si>
+  <si>
+    <t>raden7686@gmail.com</t>
+  </si>
+  <si>
+    <t>SARIP RUPIAN</t>
+  </si>
+  <si>
+    <t>'3271042907990006</t>
+  </si>
+  <si>
+    <t>2023-11-29</t>
+  </si>
+  <si>
+    <t>saripratian@gmail.com</t>
+  </si>
+  <si>
+    <t>SYARIF HIDAYAT</t>
+  </si>
+  <si>
+    <t>'3329060309910001</t>
+  </si>
+  <si>
+    <t>ilas.september@gmail.com</t>
+  </si>
+  <si>
+    <t>NANA MARDIANA</t>
+  </si>
+  <si>
+    <t>'3216081807930007</t>
+  </si>
+  <si>
+    <t>nazkazidan55@gmail.com</t>
+  </si>
+  <si>
+    <t>ADI MAULANA PUTRA</t>
+  </si>
+  <si>
+    <t>'3275083005020025</t>
+  </si>
+  <si>
+    <t>adimaulana205@gmail.com</t>
+  </si>
+  <si>
+    <t>ROZA AFRILIA</t>
+  </si>
+  <si>
+    <t>'1306035704010001</t>
+  </si>
+  <si>
+    <t>afriliaroza19@gmail.com</t>
+  </si>
+  <si>
+    <t>IDRIS</t>
+  </si>
+  <si>
+    <t>'3201031704690004</t>
+  </si>
+  <si>
+    <t>idris99672@gmail.com</t>
+  </si>
+  <si>
+    <t>AMARULLOH</t>
+  </si>
+  <si>
+    <t>'3329022004990009</t>
+  </si>
+  <si>
+    <t>2023-02-05</t>
+  </si>
+  <si>
+    <t>rulohamar3@gmail.com</t>
+  </si>
+  <si>
+    <t>SENDI</t>
+  </si>
+  <si>
+    <t>'3601285701040002</t>
+  </si>
+  <si>
+    <t>2024-02-29</t>
+  </si>
+  <si>
+    <t>auliasendi04@gmail.com</t>
+  </si>
+  <si>
+    <t>HENGKI AGUNG PRASTYO</t>
+  </si>
+  <si>
+    <t>'3172032706980002</t>
+  </si>
+  <si>
+    <t>2024-04-15</t>
+  </si>
+  <si>
+    <t>Hengkyagungprasetya@gmail.com</t>
+  </si>
+  <si>
+    <t>DEDE MUAMAR</t>
+  </si>
+  <si>
+    <t>'3215242204000002</t>
+  </si>
+  <si>
+    <t>2024-05-03</t>
+  </si>
+  <si>
+    <t>dd.amar2204@gmail.com</t>
+  </si>
+  <si>
+    <t>DEBI NOVRIYANTO</t>
+  </si>
+  <si>
+    <t>'1701041411980001</t>
+  </si>
+  <si>
+    <t>dhebynovriyanto14@gmail.com</t>
+  </si>
+  <si>
+    <t>REZA ALDIANSYAH</t>
+  </si>
+  <si>
+    <t>'3174011807031004</t>
+  </si>
+  <si>
+    <t>2024-05-13</t>
+  </si>
+  <si>
+    <t>zaaldiansyah13@gmail.com</t>
+  </si>
+  <si>
+    <t>MUHAMMAD HELMI ALVANZA</t>
+  </si>
+  <si>
+    <t>'3173070711020001</t>
+  </si>
+  <si>
+    <t>2024-06-13</t>
+  </si>
+  <si>
+    <t>Muhammadhelmi0702@gmail.com</t>
+  </si>
+  <si>
+    <t>SITI ROHMANIA</t>
+  </si>
+  <si>
+    <t>'3201314907020004</t>
+  </si>
+  <si>
+    <t>2024-06-15</t>
+  </si>
+  <si>
+    <t>strohmania09@gmail.com</t>
+  </si>
+  <si>
+    <t>APIDA SAIRA</t>
+  </si>
+  <si>
+    <t>'3173064401040009</t>
+  </si>
+  <si>
+    <t>Apidasaira19@gmail.com</t>
+  </si>
+  <si>
+    <t>Putri Wulandari</t>
+  </si>
+  <si>
+    <t>'1803236709040001</t>
+  </si>
+  <si>
+    <t>2024-07-20</t>
+  </si>
+  <si>
+    <t>p7783202@gmail.com</t>
+  </si>
+  <si>
+    <t>Rifki Setiawan Ramdani</t>
+  </si>
+  <si>
+    <t>'3271012811010012</t>
+  </si>
+  <si>
+    <t>rifkisetiawanramdani1@gmail.com</t>
+  </si>
+  <si>
+    <t>'1801214509060001</t>
+  </si>
+  <si>
+    <t>siskadwiyanti58@gmail.com</t>
+  </si>
+  <si>
+    <t>DEDY IRAWAN</t>
+  </si>
+  <si>
+    <t>'1801212512020001</t>
+  </si>
+  <si>
+    <t>2024-11-06</t>
+  </si>
+  <si>
+    <t>dedyirawan1222@gmail.com</t>
+  </si>
+  <si>
+    <t>SYAHRUL MAUDA TRIANSYAH</t>
+  </si>
+  <si>
+    <t>'3201170209970006</t>
+  </si>
+  <si>
+    <t>2023-02-02</t>
+  </si>
+  <si>
+    <t>syahrultriansyah246@gmail.com</t>
+  </si>
+  <si>
+    <t>DIAN TEGER</t>
+  </si>
+  <si>
+    <t>'1605111908030003</t>
+  </si>
+  <si>
+    <t>diyanteger123@gmail.com</t>
+  </si>
+  <si>
+    <t>RASMIN</t>
+  </si>
+  <si>
+    <t>'3601122610870002</t>
+  </si>
+  <si>
+    <t>2021-08-26</t>
+  </si>
+  <si>
+    <t>rasminamin6@gmail.com</t>
+  </si>
+  <si>
+    <t>ANDRI</t>
+  </si>
+  <si>
+    <t>'3203060710970006</t>
+  </si>
+  <si>
+    <t>Andriardiansyah627@gmail.com</t>
+  </si>
+  <si>
     <t>Wahyudin</t>
   </si>
   <si>
@@ -1459,1161 +2614,6 @@
   </si>
   <si>
     <t>Wahyusetiasetia45@gmail.com</t>
-  </si>
-  <si>
-    <t>Wahyudi Prajanto</t>
-  </si>
-  <si>
-    <t>'3275112006870003</t>
-  </si>
-  <si>
-    <t>prajantowahyudi@gmail.com</t>
-  </si>
-  <si>
-    <t>Briyan Van Reza</t>
-  </si>
-  <si>
-    <t>'3212241909920001</t>
-  </si>
-  <si>
-    <t>rezavanbryan@gmail.com</t>
-  </si>
-  <si>
-    <t>SIFA FAUZIAH</t>
-  </si>
-  <si>
-    <t>'3671115909990009</t>
-  </si>
-  <si>
-    <t>2024-08-26</t>
-  </si>
-  <si>
-    <t>sifa160999@gmail.com</t>
-  </si>
-  <si>
-    <t>Farhan Aziz</t>
-  </si>
-  <si>
-    <t>'3175043007030005</t>
-  </si>
-  <si>
-    <t>2024-09-19</t>
-  </si>
-  <si>
-    <t>farhanaziz974@gmail.com</t>
-  </si>
-  <si>
-    <t>SATRIA MARHADI</t>
-  </si>
-  <si>
-    <t>'3172020203980006</t>
-  </si>
-  <si>
-    <t>satriamarhadi98@gmail.com</t>
-  </si>
-  <si>
-    <t>Raju Metha</t>
-  </si>
-  <si>
-    <t>'1605071607970002</t>
-  </si>
-  <si>
-    <t>rajumetharaju16@gmail.com</t>
-  </si>
-  <si>
-    <t>Muhamad Hermawan</t>
-  </si>
-  <si>
-    <t>'3202260810880001</t>
-  </si>
-  <si>
-    <t>Danru</t>
-  </si>
-  <si>
-    <t>dheonhermawan@gmail.com</t>
-  </si>
-  <si>
-    <t>Arief Sanjaya</t>
-  </si>
-  <si>
-    <t>'3201022504910002</t>
-  </si>
-  <si>
-    <t>Ariefsanjaya207@gmail.com</t>
-  </si>
-  <si>
-    <t>gilang Dita Gita persada</t>
-  </si>
-  <si>
-    <t>'3276022001880005</t>
-  </si>
-  <si>
-    <t>gilang.dita@gmail.com</t>
-  </si>
-  <si>
-    <t>SUPRIYANTO</t>
-  </si>
-  <si>
-    <t>'1808071010940004</t>
-  </si>
-  <si>
-    <t>ianv60737@gmail.com</t>
-  </si>
-  <si>
-    <t>Agung Wahyudi</t>
-  </si>
-  <si>
-    <t>'1207020204940003</t>
-  </si>
-  <si>
-    <t>agungmalik1994@gmail.com</t>
-  </si>
-  <si>
-    <t>Agung Gunawan</t>
-  </si>
-  <si>
-    <t>'3604022903010001</t>
-  </si>
-  <si>
-    <t>Gagung2903@gmail.com</t>
-  </si>
-  <si>
-    <t>Mukti mulyana</t>
-  </si>
-  <si>
-    <t>'3206120112980001</t>
-  </si>
-  <si>
-    <t>muktimulyana01@gmail.com</t>
-  </si>
-  <si>
-    <t>TEGAR RUDI ADI PRABOWO</t>
-  </si>
-  <si>
-    <t>'3309112911030004</t>
-  </si>
-  <si>
-    <t>tegarrudiap@gmail.com</t>
-  </si>
-  <si>
-    <t>AGUS TUPANA</t>
-  </si>
-  <si>
-    <t>'3603121808700001</t>
-  </si>
-  <si>
-    <t>SYNERGI MULTI DAYA PRATAMA PT</t>
-  </si>
-  <si>
-    <t>2019-04-16</t>
-  </si>
-  <si>
-    <t>topanagus804@gmail.com</t>
-  </si>
-  <si>
-    <t>SANUSI</t>
-  </si>
-  <si>
-    <t>'3603271208990005</t>
-  </si>
-  <si>
-    <t>2024-01-24</t>
-  </si>
-  <si>
-    <t>sanusiparis123@gmail.com</t>
-  </si>
-  <si>
-    <t>DEBY MARYADI</t>
-  </si>
-  <si>
-    <t>'3175010303860001</t>
-  </si>
-  <si>
-    <t>MIMARU</t>
-  </si>
-  <si>
-    <t>2024-07-10</t>
-  </si>
-  <si>
-    <t>debimaryadi01@gmail.com</t>
-  </si>
-  <si>
-    <t>Angga</t>
-  </si>
-  <si>
-    <t>'3172061905960003</t>
-  </si>
-  <si>
-    <t>anggarachman50@gmail.com</t>
-  </si>
-  <si>
-    <t>Bahrudin</t>
-  </si>
-  <si>
-    <t>'3604332002990001</t>
-  </si>
-  <si>
-    <t>bahar.udin200299@gmail.com</t>
-  </si>
-  <si>
-    <t>Ridwan abdulah</t>
-  </si>
-  <si>
-    <t>'3205051902970002</t>
-  </si>
-  <si>
-    <t>abdulahridwan633@gmail.com</t>
-  </si>
-  <si>
-    <t>Riski fajar lestanto</t>
-  </si>
-  <si>
-    <t>'3301031105970003</t>
-  </si>
-  <si>
-    <t>HAUS CIKUPA</t>
-  </si>
-  <si>
-    <t>fajarriski568@gmail.com</t>
-  </si>
-  <si>
-    <t>Marsell</t>
-  </si>
-  <si>
-    <t>'3603131108030004</t>
-  </si>
-  <si>
-    <t>Project Leader ( Danru )</t>
-  </si>
-  <si>
-    <t>SUPRANUSA</t>
-  </si>
-  <si>
-    <t>megandomani24@gmail.com</t>
-  </si>
-  <si>
-    <t>Ahmad Ripai</t>
-  </si>
-  <si>
-    <t>'3201220308990003</t>
-  </si>
-  <si>
-    <t>2024-11-29</t>
-  </si>
-  <si>
-    <t>ahmadpai7011@gmail.com</t>
-  </si>
-  <si>
-    <t>MARKUS SATRIA WIJAYA</t>
-  </si>
-  <si>
-    <t>'1608010112020002</t>
-  </si>
-  <si>
-    <t>IRON EAGLE ENERGY</t>
-  </si>
-  <si>
-    <t>ricardomarkus78@gmail.com</t>
-  </si>
-  <si>
-    <t>Muhamad Rafael</t>
-  </si>
-  <si>
-    <t>'3275030612020027</t>
-  </si>
-  <si>
-    <t>erlanggarafael06@gmail.com</t>
-  </si>
-  <si>
-    <t>FADLA IKLILA</t>
-  </si>
-  <si>
-    <t>'3327012308030001</t>
-  </si>
-  <si>
-    <t>2024-12-06</t>
-  </si>
-  <si>
-    <t>fadlabae123@gmail.com</t>
-  </si>
-  <si>
-    <t>Aji Prasojo</t>
-  </si>
-  <si>
-    <t>'3216081310930002</t>
-  </si>
-  <si>
-    <t>buwonoaji574@gmail.com</t>
-  </si>
-  <si>
-    <t>JOKO MULYONO</t>
-  </si>
-  <si>
-    <t>'3306022504970002</t>
-  </si>
-  <si>
-    <t>ADMIN, DANRU</t>
-  </si>
-  <si>
-    <t>jokomulyono081@gmail.com</t>
-  </si>
-  <si>
-    <t>ANA MARIA SOFIANA</t>
-  </si>
-  <si>
-    <t>'3173014105941004</t>
-  </si>
-  <si>
-    <t>anamariasofiana21@gmail.com</t>
-  </si>
-  <si>
-    <t>PAHRUROJI</t>
-  </si>
-  <si>
-    <t>'3602171804030001</t>
-  </si>
-  <si>
-    <t>kangpahruroji19@gmail.com</t>
-  </si>
-  <si>
-    <t>ANDRES FEBRIAN</t>
-  </si>
-  <si>
-    <t>'3602181002030005</t>
-  </si>
-  <si>
-    <t>andresfebrian99@gmail.com</t>
-  </si>
-  <si>
-    <t>Mayang meisina</t>
-  </si>
-  <si>
-    <t>'1403096805030002</t>
-  </si>
-  <si>
-    <t>2024-10-15</t>
-  </si>
-  <si>
-    <t>mayangmeisina05@gmail.com</t>
-  </si>
-  <si>
-    <t>RIZKI FAJAR KURNIAWAN</t>
-  </si>
-  <si>
-    <t>'3275091802910007</t>
-  </si>
-  <si>
-    <t>rizkifajarkurniawan1@gmail.com</t>
-  </si>
-  <si>
-    <t>ENDAH SUCI</t>
-  </si>
-  <si>
-    <t>'3175086904891001</t>
-  </si>
-  <si>
-    <t>endahsuci838@gmail.com</t>
-  </si>
-  <si>
-    <t>TARISA MALINDA R</t>
-  </si>
-  <si>
-    <t>'1801065105050002</t>
-  </si>
-  <si>
-    <t>2024-06-12</t>
-  </si>
-  <si>
-    <t>tarisamelinda8@gmail.com</t>
-  </si>
-  <si>
-    <t>IRFAN ZIDNI</t>
-  </si>
-  <si>
-    <t>'3216181503970008</t>
-  </si>
-  <si>
-    <t>irfanzidni006@gmail.com</t>
-  </si>
-  <si>
-    <t>DAMIANUS MADU</t>
-  </si>
-  <si>
-    <t>'5310061504950006</t>
-  </si>
-  <si>
-    <t>IBIS JAKARTA RADEN SALEH HOTEL</t>
-  </si>
-  <si>
-    <t>2021-12-17</t>
-  </si>
-  <si>
-    <t>damianusmadu428@gmail.com</t>
-  </si>
-  <si>
-    <t>ZOEL ARIES GEA</t>
-  </si>
-  <si>
-    <t>'3603161504930006</t>
-  </si>
-  <si>
-    <t>2024-03-04</t>
-  </si>
-  <si>
-    <t>zoelariesgea93@gmail.com</t>
-  </si>
-  <si>
-    <t>RAHMAT CANDRA SUSILO</t>
-  </si>
-  <si>
-    <t>'3520122901030003</t>
-  </si>
-  <si>
-    <t>MEDAN BIOENERGY NUSANTARA, PT</t>
-  </si>
-  <si>
-    <t>2024-01-05</t>
-  </si>
-  <si>
-    <t>rahmatcandra.suailo@gmail.com</t>
-  </si>
-  <si>
-    <t>AHYAR MAULIDIN</t>
-  </si>
-  <si>
-    <t>'3671011807970004</t>
-  </si>
-  <si>
-    <t>2022-04-26</t>
-  </si>
-  <si>
-    <t>ahyarmaulidin2021@gmail.com</t>
-  </si>
-  <si>
-    <t>Muhammad Rizky abdurahman</t>
-  </si>
-  <si>
-    <t>'3173041909990003</t>
-  </si>
-  <si>
-    <t>mrabdurahman1999@gmail.com</t>
-  </si>
-  <si>
-    <t>FAUZAN ALFARISI</t>
-  </si>
-  <si>
-    <t>'3172040803950012</t>
-  </si>
-  <si>
-    <t>2021-05-20</t>
-  </si>
-  <si>
-    <t>fauzanalfarisi95@gmail.com</t>
-  </si>
-  <si>
-    <t>HERU YUSTIAWAN</t>
-  </si>
-  <si>
-    <t>'1805272409000001</t>
-  </si>
-  <si>
-    <t>heruyustiawan@gmail.com</t>
-  </si>
-  <si>
-    <t>APRILIANTO</t>
-  </si>
-  <si>
-    <t>'3173043004920005</t>
-  </si>
-  <si>
-    <t>2023-09-20</t>
-  </si>
-  <si>
-    <t>glendot30@gmail.com</t>
-  </si>
-  <si>
-    <t>M FARIEZ ABDALLAH SIMATUPANG</t>
-  </si>
-  <si>
-    <t>'1207232802890001</t>
-  </si>
-  <si>
-    <t>2022-03-23</t>
-  </si>
-  <si>
-    <t>faridvivo65@gmail.com</t>
-  </si>
-  <si>
-    <t>RAHMAT MAULANA NOVISA</t>
-  </si>
-  <si>
-    <t>'3202141011000002</t>
-  </si>
-  <si>
-    <t>2023-05-19</t>
-  </si>
-  <si>
-    <t>maulananovisa93@gmail.com</t>
-  </si>
-  <si>
-    <t>FAKHRIZAL</t>
-  </si>
-  <si>
-    <t>'1109040606930002</t>
-  </si>
-  <si>
-    <t>2023-10-31</t>
-  </si>
-  <si>
-    <t>fahry88888888@gmail.com</t>
-  </si>
-  <si>
-    <t>SANGKUT SAPARI</t>
-  </si>
-  <si>
-    <t>'1605070403960005</t>
-  </si>
-  <si>
-    <t>2024-02-19</t>
-  </si>
-  <si>
-    <t>sangkutsapari959@gmail.com</t>
-  </si>
-  <si>
-    <t>APRIZAL SAPUTRA</t>
-  </si>
-  <si>
-    <t>'3175051904980001</t>
-  </si>
-  <si>
-    <t>2024-03-10</t>
-  </si>
-  <si>
-    <t>aprizalsaputra019@gmail.com</t>
-  </si>
-  <si>
-    <t>HARY BAROCHA</t>
-  </si>
-  <si>
-    <t>'3173032502940003</t>
-  </si>
-  <si>
-    <t>Barochahary@gmail.com</t>
-  </si>
-  <si>
-    <t>MUHAMAD JAY YADI</t>
-  </si>
-  <si>
-    <t>'3328111312020008</t>
-  </si>
-  <si>
-    <t>jayadikamplenk020@gmail.com</t>
-  </si>
-  <si>
-    <t>MUHAMMAD KHOLISIL MUKHLIS</t>
-  </si>
-  <si>
-    <t>'3172032106041002</t>
-  </si>
-  <si>
-    <t>mkmukhlis21@gmail.com</t>
-  </si>
-  <si>
-    <t>Pandu setia pratama</t>
-  </si>
-  <si>
-    <t>'1611040606030004</t>
-  </si>
-  <si>
-    <t>2024-08-05</t>
-  </si>
-  <si>
-    <t>pandu0606003@gmail.com</t>
-  </si>
-  <si>
-    <t>Ratno Wijaya</t>
-  </si>
-  <si>
-    <t>'3171033012870005</t>
-  </si>
-  <si>
-    <t>ratnowijaya33@gmail.com</t>
-  </si>
-  <si>
-    <t>Muhammad Nur Yahya Furqon</t>
-  </si>
-  <si>
-    <t>'3603112904960001</t>
-  </si>
-  <si>
-    <t>furqonyahya29@gmail.com</t>
-  </si>
-  <si>
-    <t>Fransiskus Rudney Godjin</t>
-  </si>
-  <si>
-    <t>'5306032201950001</t>
-  </si>
-  <si>
-    <t>2024-11-25</t>
-  </si>
-  <si>
-    <t>fransiskusrudney@gmail.com</t>
-  </si>
-  <si>
-    <t>NURMAN</t>
-  </si>
-  <si>
-    <t>'3173042509900002</t>
-  </si>
-  <si>
-    <t>IPEKA PLUIT YAYASAN</t>
-  </si>
-  <si>
-    <t>2021-07-29</t>
-  </si>
-  <si>
-    <t>nurmanbadboy@gmail.com</t>
-  </si>
-  <si>
-    <t>DWI RATMONO</t>
-  </si>
-  <si>
-    <t>'3301011907820003</t>
-  </si>
-  <si>
-    <t>2021-07-30</t>
-  </si>
-  <si>
-    <t>dwiroland163@gmail.com</t>
-  </si>
-  <si>
-    <t>ANDIKA SAPUTRA</t>
-  </si>
-  <si>
-    <t>'3171072505030005</t>
-  </si>
-  <si>
-    <t>2023-08-04</t>
-  </si>
-  <si>
-    <t>andikasaputra250503@gmail.com</t>
-  </si>
-  <si>
-    <t>ANINNABAIN</t>
-  </si>
-  <si>
-    <t>'3376043105970002</t>
-  </si>
-  <si>
-    <t>2022-06-01</t>
-  </si>
-  <si>
-    <t>abainsquad74@gmail.com</t>
-  </si>
-  <si>
-    <t>RIYAN RIVANO</t>
-  </si>
-  <si>
-    <t>'3173012705000003</t>
-  </si>
-  <si>
-    <t>riyanrivano7@gmail.com</t>
-  </si>
-  <si>
-    <t>ARIF RAHMAN ALWI</t>
-  </si>
-  <si>
-    <t>'3174090710010003</t>
-  </si>
-  <si>
-    <t>2022-06-27</t>
-  </si>
-  <si>
-    <t>arifalwi16538@gmail.com</t>
-  </si>
-  <si>
-    <t>ILHAM WAHYUDI</t>
-  </si>
-  <si>
-    <t>'3173040602910001</t>
-  </si>
-  <si>
-    <t>Muningsih768@gmail.com</t>
-  </si>
-  <si>
-    <t>DEWI ARUMSIH</t>
-  </si>
-  <si>
-    <t>'3306046202990001</t>
-  </si>
-  <si>
-    <t>dewiarumsih0222@gmail.com</t>
-  </si>
-  <si>
-    <t>AHMAD JUNAEDI</t>
-  </si>
-  <si>
-    <t>'3201102505990003</t>
-  </si>
-  <si>
-    <t>ahmadjunaedi2505@gmail.com</t>
-  </si>
-  <si>
-    <t>MAXY NGANTUNG</t>
-  </si>
-  <si>
-    <t>'7106030403810003</t>
-  </si>
-  <si>
-    <t>muhammadmaxi1200@gmail.com</t>
-  </si>
-  <si>
-    <t>Sugito</t>
-  </si>
-  <si>
-    <t>'3329092308010002</t>
-  </si>
-  <si>
-    <t>sugito24516@gmail.com</t>
-  </si>
-  <si>
-    <t>SAIPULLOH AMIN</t>
-  </si>
-  <si>
-    <t>'3172022606780003</t>
-  </si>
-  <si>
-    <t>2021-08-30</t>
-  </si>
-  <si>
-    <t>riskaramadhaniputri27@gmail.com</t>
-  </si>
-  <si>
-    <t>AGAM HANAFI</t>
-  </si>
-  <si>
-    <t>'3201141603030004</t>
-  </si>
-  <si>
-    <t>2023-04-13</t>
-  </si>
-  <si>
-    <t>hanafiagam0303@gmail.com</t>
-  </si>
-  <si>
-    <t>EFRISA INTAN AGUSTINA</t>
-  </si>
-  <si>
-    <t>'1608166008000001</t>
-  </si>
-  <si>
-    <t>efrisaintanagustina08@gmail.com</t>
-  </si>
-  <si>
-    <t>CICA WILANTIKA</t>
-  </si>
-  <si>
-    <t>'1808144104050001</t>
-  </si>
-  <si>
-    <t>2023-02-04</t>
-  </si>
-  <si>
-    <t>cicawilantika@gmail.com</t>
-  </si>
-  <si>
-    <t>MUHAMMAD AL IRSAN</t>
-  </si>
-  <si>
-    <t>'1801061105970003</t>
-  </si>
-  <si>
-    <t>irsantorneto@gmail.com</t>
-  </si>
-  <si>
-    <t>FAISAL AMIR</t>
-  </si>
-  <si>
-    <t>'1806090306950002</t>
-  </si>
-  <si>
-    <t>citrazanetta22@gmail.com</t>
-  </si>
-  <si>
-    <t>ARIF MAULANA MALIK</t>
-  </si>
-  <si>
-    <t>'1801210506010001</t>
-  </si>
-  <si>
-    <t>arifmaulanamalik22@gmail.com</t>
-  </si>
-  <si>
-    <t>AGUNG WILDAN NURYAN</t>
-  </si>
-  <si>
-    <t>'3203061502030005</t>
-  </si>
-  <si>
-    <t>agungwildan459@gmail.com</t>
-  </si>
-  <si>
-    <t>AGAM SETYA HERMANSYAH</t>
-  </si>
-  <si>
-    <t>'3203061008000010</t>
-  </si>
-  <si>
-    <t>agamsetya10@gmail.com</t>
-  </si>
-  <si>
-    <t>DENI PRATOMO</t>
-  </si>
-  <si>
-    <t>'3674073112940001</t>
-  </si>
-  <si>
-    <t>2022-12-14</t>
-  </si>
-  <si>
-    <t>denipratomo39@gmail.com</t>
-  </si>
-  <si>
-    <t>ANDI FARIS SUSANTO</t>
-  </si>
-  <si>
-    <t>'3302030609850002</t>
-  </si>
-  <si>
-    <t>2024-01-18</t>
-  </si>
-  <si>
-    <t>farisandi345@gmail.com</t>
-  </si>
-  <si>
-    <t>ANDIKA NURROHMAN WAHID</t>
-  </si>
-  <si>
-    <t>'3173062110990002</t>
-  </si>
-  <si>
-    <t>andikawahid1999@gmail.com</t>
-  </si>
-  <si>
-    <t>DADAN SUPRIATNA</t>
-  </si>
-  <si>
-    <t>'3213261008980001</t>
-  </si>
-  <si>
-    <t>supriatnadadan072@gmail.com</t>
-  </si>
-  <si>
-    <t>TEGUH ADRIANTO</t>
-  </si>
-  <si>
-    <t>'1608130108010001</t>
-  </si>
-  <si>
-    <t>teguhadrianto2001@gmail.com</t>
-  </si>
-  <si>
-    <t>SILVIA AGUSTIN</t>
-  </si>
-  <si>
-    <t>'3329034308000002</t>
-  </si>
-  <si>
-    <t>silviaagustin426@gmail.com</t>
-  </si>
-  <si>
-    <t>DADANG</t>
-  </si>
-  <si>
-    <t>'1608110107830003</t>
-  </si>
-  <si>
-    <t>astiakila@gmail.com</t>
-  </si>
-  <si>
-    <t>MUHAMMAD DZUHURYANSYAH</t>
-  </si>
-  <si>
-    <t>'3174062210010003</t>
-  </si>
-  <si>
-    <t>m.dzuhur36@gmail.com</t>
-  </si>
-  <si>
-    <t>ANTON SAPUTRA</t>
-  </si>
-  <si>
-    <t>'1809061109960004</t>
-  </si>
-  <si>
-    <t>antonsaputra61211@gmail.com</t>
-  </si>
-  <si>
-    <t>LUINDA PUTRI</t>
-  </si>
-  <si>
-    <t>'1608186109040001</t>
-  </si>
-  <si>
-    <t>luindaputri@gmail.com</t>
-  </si>
-  <si>
-    <t>RIAN SAPUTRA</t>
-  </si>
-  <si>
-    <t>'1611040408950005</t>
-  </si>
-  <si>
-    <t>2023-02-06</t>
-  </si>
-  <si>
-    <t>raden7686@gmail.com</t>
-  </si>
-  <si>
-    <t>SARIP RUPIAN</t>
-  </si>
-  <si>
-    <t>'3271042907990006</t>
-  </si>
-  <si>
-    <t>2023-11-29</t>
-  </si>
-  <si>
-    <t>saripratian@gmail.com</t>
-  </si>
-  <si>
-    <t>SYARIF HIDAYAT</t>
-  </si>
-  <si>
-    <t>'3329060309910001</t>
-  </si>
-  <si>
-    <t>ilas.september@gmail.com</t>
-  </si>
-  <si>
-    <t>NANA MARDIANA</t>
-  </si>
-  <si>
-    <t>'3216081807930007</t>
-  </si>
-  <si>
-    <t>nazkazidan55@gmail.com</t>
-  </si>
-  <si>
-    <t>ADI MAULANA PUTRA</t>
-  </si>
-  <si>
-    <t>'3275083005020025</t>
-  </si>
-  <si>
-    <t>adimaulana205@gmail.com</t>
-  </si>
-  <si>
-    <t>ROZA AFRILIA</t>
-  </si>
-  <si>
-    <t>'1306035704010001</t>
-  </si>
-  <si>
-    <t>afriliaroza19@gmail.com</t>
-  </si>
-  <si>
-    <t>IDRIS</t>
-  </si>
-  <si>
-    <t>'3201031704690004</t>
-  </si>
-  <si>
-    <t>idris99672@gmail.com</t>
-  </si>
-  <si>
-    <t>AMARULLOH</t>
-  </si>
-  <si>
-    <t>'3329022004990009</t>
-  </si>
-  <si>
-    <t>2023-02-05</t>
-  </si>
-  <si>
-    <t>rulohamar3@gmail.com</t>
-  </si>
-  <si>
-    <t>SENDI</t>
-  </si>
-  <si>
-    <t>'3601285701040002</t>
-  </si>
-  <si>
-    <t>2024-02-29</t>
-  </si>
-  <si>
-    <t>auliasendi04@gmail.com</t>
-  </si>
-  <si>
-    <t>HENGKI AGUNG PRASTYO</t>
-  </si>
-  <si>
-    <t>'3172032706980002</t>
-  </si>
-  <si>
-    <t>2024-04-15</t>
-  </si>
-  <si>
-    <t>Hengkyagungprasetya@gmail.com</t>
-  </si>
-  <si>
-    <t>DEDE MUAMAR</t>
-  </si>
-  <si>
-    <t>'3215242204000002</t>
-  </si>
-  <si>
-    <t>2024-05-03</t>
-  </si>
-  <si>
-    <t>dd.amar2204@gmail.com</t>
-  </si>
-  <si>
-    <t>DEBI NOVRIYANTO</t>
-  </si>
-  <si>
-    <t>'1701041411980001</t>
-  </si>
-  <si>
-    <t>dhebynovriyanto14@gmail.com</t>
-  </si>
-  <si>
-    <t>REZA ALDIANSYAH</t>
-  </si>
-  <si>
-    <t>'3174011807031004</t>
-  </si>
-  <si>
-    <t>2024-05-13</t>
-  </si>
-  <si>
-    <t>zaaldiansyah13@gmail.com</t>
-  </si>
-  <si>
-    <t>MUHAMMAD HELMI ALVANZA</t>
-  </si>
-  <si>
-    <t>'3173070711020001</t>
-  </si>
-  <si>
-    <t>2024-06-13</t>
-  </si>
-  <si>
-    <t>Muhammadhelmi0702@gmail.com</t>
-  </si>
-  <si>
-    <t>SITI ROHMANIA</t>
-  </si>
-  <si>
-    <t>'3201314907020004</t>
-  </si>
-  <si>
-    <t>2024-06-15</t>
-  </si>
-  <si>
-    <t>strohmania09@gmail.com</t>
-  </si>
-  <si>
-    <t>APIDA SAIRA</t>
-  </si>
-  <si>
-    <t>'3173064401040009</t>
-  </si>
-  <si>
-    <t>Apidasaira19@gmail.com</t>
-  </si>
-  <si>
-    <t>Putri Wulandari</t>
-  </si>
-  <si>
-    <t>'1803236709040001</t>
-  </si>
-  <si>
-    <t>2024-07-20</t>
-  </si>
-  <si>
-    <t>p7783202@gmail.com</t>
-  </si>
-  <si>
-    <t>Rifki Setiawan Ramdani</t>
-  </si>
-  <si>
-    <t>'3271012811010012</t>
-  </si>
-  <si>
-    <t>rifkisetiawanramdani1@gmail.com</t>
-  </si>
-  <si>
-    <t>'1801214509060001</t>
-  </si>
-  <si>
-    <t>siskadwiyanti58@gmail.com</t>
-  </si>
-  <si>
-    <t>DEDY IRAWAN</t>
-  </si>
-  <si>
-    <t>'1801212512020001</t>
-  </si>
-  <si>
-    <t>2024-11-06</t>
-  </si>
-  <si>
-    <t>dedyirawan1222@gmail.com</t>
-  </si>
-  <si>
-    <t>SYAHRUL MAUDA TRIANSYAH</t>
-  </si>
-  <si>
-    <t>'3201170209970006</t>
-  </si>
-  <si>
-    <t>2023-02-02</t>
-  </si>
-  <si>
-    <t>syahrultriansyah246@gmail.com</t>
-  </si>
-  <si>
-    <t>DIAN TEGER</t>
-  </si>
-  <si>
-    <t>'1605111908030003</t>
-  </si>
-  <si>
-    <t>diyanteger123@gmail.com</t>
-  </si>
-  <si>
-    <t>RASMIN</t>
-  </si>
-  <si>
-    <t>'3601122610870002</t>
-  </si>
-  <si>
-    <t>2021-08-26</t>
-  </si>
-  <si>
-    <t>rasminamin6@gmail.com</t>
-  </si>
-  <si>
-    <t>ANDRI</t>
-  </si>
-  <si>
-    <t>'3203060710970006</t>
-  </si>
-  <si>
-    <t>Andriardiansyah627@gmail.com</t>
   </si>
   <si>
     <t>JABATAN PENGGANTI</t>
@@ -3254,7 +3254,7 @@
       </c>
       <c r="J8"/>
       <c r="K8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L8">
         <v>4641854</v>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="J13"/>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>5067381</v>
@@ -3794,7 +3794,7 @@
       </c>
       <c r="J14"/>
       <c r="K14">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L14">
         <v>5067381</v>
@@ -3884,7 +3884,7 @@
       </c>
       <c r="J15"/>
       <c r="K15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L15">
         <v>5067381</v>
@@ -3974,7 +3974,7 @@
       </c>
       <c r="J16"/>
       <c r="K16">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L16">
         <v>5067381</v>
@@ -4244,7 +4244,7 @@
       </c>
       <c r="J19"/>
       <c r="K19">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L19">
         <v>3869717</v>
@@ -4784,7 +4784,7 @@
       </c>
       <c r="J25"/>
       <c r="K25">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L25">
         <v>4901798</v>
@@ -5774,7 +5774,7 @@
       </c>
       <c r="J36"/>
       <c r="K36">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L36">
         <v>4901798</v>
@@ -6134,7 +6134,7 @@
       </c>
       <c r="J40"/>
       <c r="K40">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L40">
         <v>5067381</v>
@@ -6584,7 +6584,7 @@
       </c>
       <c r="J45"/>
       <c r="K45">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L45">
         <v>5067381</v>
@@ -6854,7 +6854,7 @@
       </c>
       <c r="J48"/>
       <c r="K48">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L48">
         <v>5067381</v>
@@ -6944,7 +6944,7 @@
       </c>
       <c r="J49"/>
       <c r="K49">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L49">
         <v>4641854</v>
@@ -7124,7 +7124,7 @@
       </c>
       <c r="J51"/>
       <c r="K51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L51">
         <v>4641854</v>
@@ -7484,7 +7484,7 @@
       </c>
       <c r="J55"/>
       <c r="K55">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L55">
         <v>4641854</v>
@@ -7574,7 +7574,7 @@
       </c>
       <c r="J56"/>
       <c r="K56">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L56">
         <v>4641854</v>
@@ -7664,7 +7664,7 @@
       </c>
       <c r="J57"/>
       <c r="K57">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L57">
         <v>4641854</v>
@@ -9194,7 +9194,7 @@
       </c>
       <c r="J74"/>
       <c r="K74">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L74">
         <v>3869717</v>
@@ -9374,7 +9374,7 @@
       </c>
       <c r="J76"/>
       <c r="K76">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L76">
         <v>3869717</v>
@@ -9734,7 +9734,7 @@
       </c>
       <c r="J80"/>
       <c r="K80">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L80">
         <v>3869717</v>
@@ -10004,7 +10004,7 @@
       </c>
       <c r="J83"/>
       <c r="K83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L83">
         <v>4901798</v>
@@ -10184,7 +10184,7 @@
       </c>
       <c r="J85"/>
       <c r="K85">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L85">
         <v>4901798</v>
@@ -10274,7 +10274,7 @@
       </c>
       <c r="J86"/>
       <c r="K86">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L86">
         <v>4901798</v>
@@ -10904,7 +10904,7 @@
       </c>
       <c r="J93"/>
       <c r="K93">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L93">
         <v>4901798</v>
@@ -10994,7 +10994,7 @@
       </c>
       <c r="J94"/>
       <c r="K94">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L94">
         <v>4276349</v>
@@ -12614,7 +12614,7 @@
       </c>
       <c r="J112"/>
       <c r="K112">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L112">
         <v>5067381</v>
@@ -13004,7 +13004,7 @@
         <v>5275217</v>
       </c>
       <c r="U116">
-        <v>0</v>
+        <v>235633</v>
       </c>
       <c r="V116">
         <v>0</v>
@@ -13013,16 +13013,16 @@
         <v>0</v>
       </c>
       <c r="X116">
-        <v>450000</v>
+        <v>0</v>
       </c>
       <c r="Y116">
         <v>0</v>
       </c>
       <c r="Z116">
-        <v>450001</v>
+        <v>1</v>
       </c>
       <c r="AA116">
-        <v>-450001</v>
+        <v>4477030</v>
       </c>
       <c r="AB116"/>
       <c r="AC116" t="s">
@@ -13045,7 +13045,7 @@
         <v>482</v>
       </c>
       <c r="D117" t="s">
-        <v>450</v>
+        <v>210</v>
       </c>
       <c r="E117" t="s">
         <v>441</v>
@@ -13094,7 +13094,7 @@
         <v>5275217</v>
       </c>
       <c r="U117">
-        <v>235633</v>
+        <v>-370140</v>
       </c>
       <c r="V117">
         <v>0</v>
@@ -13109,10 +13109,10 @@
         <v>0</v>
       </c>
       <c r="Z117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA117">
-        <v>4477030</v>
+        <v>4598266</v>
       </c>
       <c r="AB117"/>
       <c r="AC117" t="s">
@@ -13144,17 +13144,17 @@
         <v>38</v>
       </c>
       <c r="G118" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H118">
         <v>0</v>
       </c>
       <c r="I118" t="s">
-        <v>107</v>
+        <v>486</v>
       </c>
       <c r="J118"/>
       <c r="K118">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L118">
         <v>5067381</v>
@@ -13184,25 +13184,25 @@
         <v>5275217</v>
       </c>
       <c r="U118">
-        <v>-370140</v>
+        <v>0</v>
       </c>
       <c r="V118">
         <v>0</v>
       </c>
       <c r="W118">
-        <v>0</v>
+        <v>50000.0</v>
       </c>
       <c r="X118">
-        <v>0</v>
+        <v>450000</v>
       </c>
       <c r="Y118">
         <v>0</v>
       </c>
       <c r="Z118">
-        <v>0</v>
+        <v>450000</v>
       </c>
       <c r="AA118">
-        <v>4598266</v>
+        <v>3756600</v>
       </c>
       <c r="AB118"/>
       <c r="AC118" t="s">
@@ -13211,7 +13211,7 @@
       <c r="AD118"/>
       <c r="AE118"/>
       <c r="AF118" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="119" spans="1:32">
@@ -13219,10 +13219,10 @@
         <v>112</v>
       </c>
       <c r="B119" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C119" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D119" t="s">
         <v>210</v>
@@ -13240,7 +13240,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="J119"/>
       <c r="K119">
@@ -13280,7 +13280,7 @@
         <v>0</v>
       </c>
       <c r="W119">
-        <v>50000.0</v>
+        <v>0</v>
       </c>
       <c r="X119">
         <v>450000</v>
@@ -13292,7 +13292,7 @@
         <v>450000</v>
       </c>
       <c r="AA119">
-        <v>3756600</v>
+        <v>3806600</v>
       </c>
       <c r="AB119"/>
       <c r="AC119" t="s">
@@ -13301,7 +13301,7 @@
       <c r="AD119"/>
       <c r="AE119"/>
       <c r="AF119" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="120" spans="1:32">
@@ -13309,10 +13309,10 @@
         <v>113</v>
       </c>
       <c r="B120" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C120" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D120" t="s">
         <v>210</v>
@@ -13324,13 +13324,13 @@
         <v>38</v>
       </c>
       <c r="G120" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H120">
         <v>0</v>
       </c>
       <c r="I120" t="s">
-        <v>493</v>
+        <v>211</v>
       </c>
       <c r="J120"/>
       <c r="K120">
@@ -13364,7 +13364,7 @@
         <v>5275217</v>
       </c>
       <c r="U120">
-        <v>0</v>
+        <v>1418865</v>
       </c>
       <c r="V120">
         <v>0</v>
@@ -13373,16 +13373,16 @@
         <v>0</v>
       </c>
       <c r="X120">
-        <v>450000</v>
+        <v>0</v>
       </c>
       <c r="Y120">
         <v>0</v>
       </c>
       <c r="Z120">
-        <v>450000</v>
+        <v>7</v>
       </c>
       <c r="AA120">
-        <v>3806600</v>
+        <v>2837728</v>
       </c>
       <c r="AB120"/>
       <c r="AC120" t="s">
@@ -13420,11 +13420,11 @@
         <v>0</v>
       </c>
       <c r="I121" t="s">
-        <v>211</v>
+        <v>117</v>
       </c>
       <c r="J121"/>
       <c r="K121">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L121">
         <v>5067381</v>
@@ -13454,7 +13454,7 @@
         <v>5275217</v>
       </c>
       <c r="U121">
-        <v>1418865</v>
+        <v>0</v>
       </c>
       <c r="V121">
         <v>0</v>
@@ -13469,10 +13469,10 @@
         <v>0</v>
       </c>
       <c r="Z121">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AA121">
-        <v>2837728</v>
+        <v>4256600</v>
       </c>
       <c r="AB121"/>
       <c r="AC121" t="s">
@@ -13495,7 +13495,7 @@
         <v>499</v>
       </c>
       <c r="D122" t="s">
-        <v>210</v>
+        <v>500</v>
       </c>
       <c r="E122" t="s">
         <v>441</v>
@@ -13510,14 +13510,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="J122"/>
       <c r="K122">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L122">
-        <v>5067381</v>
+        <v>0</v>
       </c>
       <c r="M122">
         <v>0</v>
@@ -13529,7 +13529,7 @@
         <v>0</v>
       </c>
       <c r="P122">
-        <v>207836</v>
+        <v>0</v>
       </c>
       <c r="Q122">
         <v>0</v>
@@ -13541,10 +13541,10 @@
         <v>0</v>
       </c>
       <c r="T122">
-        <v>5275217</v>
+        <v>0</v>
       </c>
       <c r="U122">
-        <v>0</v>
+        <v>-263824</v>
       </c>
       <c r="V122">
         <v>0</v>
@@ -13562,7 +13562,7 @@
         <v>0</v>
       </c>
       <c r="AA122">
-        <v>4256600</v>
+        <v>263824</v>
       </c>
       <c r="AB122"/>
       <c r="AC122" t="s">
@@ -13571,7 +13571,7 @@
       <c r="AD122"/>
       <c r="AE122"/>
       <c r="AF122" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="123" spans="1:32">
@@ -13579,13 +13579,13 @@
         <v>116</v>
       </c>
       <c r="B123" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C123" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D123" t="s">
-        <v>503</v>
+        <v>450</v>
       </c>
       <c r="E123" t="s">
         <v>441</v>
@@ -13634,7 +13634,7 @@
         <v>0</v>
       </c>
       <c r="U123">
-        <v>-263824</v>
+        <v>-248035</v>
       </c>
       <c r="V123">
         <v>0</v>
@@ -13652,7 +13652,7 @@
         <v>0</v>
       </c>
       <c r="AA123">
-        <v>263824</v>
+        <v>248035</v>
       </c>
       <c r="AB123"/>
       <c r="AC123" t="s">
@@ -13724,13 +13724,13 @@
         <v>0</v>
       </c>
       <c r="U124">
-        <v>-248035</v>
+        <v>0</v>
       </c>
       <c r="V124">
         <v>0</v>
       </c>
       <c r="W124">
-        <v>0</v>
+        <v>50000.0</v>
       </c>
       <c r="X124">
         <v>0</v>
@@ -13739,10 +13739,10 @@
         <v>0</v>
       </c>
       <c r="Z124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA124">
-        <v>248035</v>
+        <v>-50001</v>
       </c>
       <c r="AB124"/>
       <c r="AC124" t="s">
@@ -13774,7 +13774,7 @@
         <v>38</v>
       </c>
       <c r="G125" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H125">
         <v>0</v>
@@ -13787,7 +13787,7 @@
         <v>7</v>
       </c>
       <c r="L125">
-        <v>0</v>
+        <v>5067381</v>
       </c>
       <c r="M125">
         <v>0</v>
@@ -13799,7 +13799,7 @@
         <v>0</v>
       </c>
       <c r="P125">
-        <v>0</v>
+        <v>207836</v>
       </c>
       <c r="Q125">
         <v>0</v>
@@ -13811,10 +13811,10 @@
         <v>0</v>
       </c>
       <c r="T125">
-        <v>0</v>
+        <v>5275217</v>
       </c>
       <c r="U125">
-        <v>0</v>
+        <v>1413798</v>
       </c>
       <c r="V125">
         <v>0</v>
@@ -13829,10 +13829,10 @@
         <v>0</v>
       </c>
       <c r="Z125">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AA125">
-        <v>-50001</v>
+        <v>3248860</v>
       </c>
       <c r="AB125"/>
       <c r="AC125" t="s">
@@ -13877,7 +13877,7 @@
         <v>7</v>
       </c>
       <c r="L126">
-        <v>5067381</v>
+        <v>0</v>
       </c>
       <c r="M126">
         <v>0</v>
@@ -13889,7 +13889,7 @@
         <v>0</v>
       </c>
       <c r="P126">
-        <v>207836</v>
+        <v>0</v>
       </c>
       <c r="Q126">
         <v>0</v>
@@ -13901,16 +13901,16 @@
         <v>0</v>
       </c>
       <c r="T126">
-        <v>5275217</v>
+        <v>0</v>
       </c>
       <c r="U126">
-        <v>1413798</v>
+        <v>0</v>
       </c>
       <c r="V126">
         <v>0</v>
       </c>
       <c r="W126">
-        <v>50000.0</v>
+        <v>0</v>
       </c>
       <c r="X126">
         <v>0</v>
@@ -13919,10 +13919,10 @@
         <v>0</v>
       </c>
       <c r="Z126">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AA126">
-        <v>3248860</v>
+        <v>4712664</v>
       </c>
       <c r="AB126"/>
       <c r="AC126" t="s">
@@ -13945,7 +13945,7 @@
         <v>515</v>
       </c>
       <c r="D127" t="s">
-        <v>450</v>
+        <v>36</v>
       </c>
       <c r="E127" t="s">
         <v>441</v>
@@ -13960,11 +13960,11 @@
         <v>0</v>
       </c>
       <c r="I127" t="s">
-        <v>107</v>
+        <v>173</v>
       </c>
       <c r="J127"/>
       <c r="K127">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L127">
         <v>0</v>
@@ -14000,7 +14000,7 @@
         <v>0</v>
       </c>
       <c r="W127">
-        <v>0</v>
+        <v>50000.0</v>
       </c>
       <c r="X127">
         <v>0</v>
@@ -14012,7 +14012,7 @@
         <v>0</v>
       </c>
       <c r="AA127">
-        <v>4712664</v>
+        <v>-50000</v>
       </c>
       <c r="AB127"/>
       <c r="AC127" t="s">
@@ -14035,7 +14035,7 @@
         <v>518</v>
       </c>
       <c r="D128" t="s">
-        <v>36</v>
+        <v>210</v>
       </c>
       <c r="E128" t="s">
         <v>441</v>
@@ -14044,13 +14044,13 @@
         <v>38</v>
       </c>
       <c r="G128" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H128">
         <v>0</v>
       </c>
       <c r="I128" t="s">
-        <v>173</v>
+        <v>206</v>
       </c>
       <c r="J128"/>
       <c r="K128">
@@ -14084,13 +14084,13 @@
         <v>0</v>
       </c>
       <c r="U128">
-        <v>0</v>
+        <v>-224032</v>
       </c>
       <c r="V128">
         <v>0</v>
       </c>
       <c r="W128">
-        <v>50000.0</v>
+        <v>0</v>
       </c>
       <c r="X128">
         <v>0</v>
@@ -14102,7 +14102,7 @@
         <v>0</v>
       </c>
       <c r="AA128">
-        <v>-50000</v>
+        <v>224032</v>
       </c>
       <c r="AB128"/>
       <c r="AC128" t="s">
@@ -14134,20 +14134,20 @@
         <v>38</v>
       </c>
       <c r="G129" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H129">
         <v>0</v>
       </c>
       <c r="I129" t="s">
-        <v>206</v>
+        <v>347</v>
       </c>
       <c r="J129"/>
       <c r="K129">
         <v>4</v>
       </c>
       <c r="L129">
-        <v>0</v>
+        <v>5067381</v>
       </c>
       <c r="M129">
         <v>0</v>
@@ -14159,7 +14159,7 @@
         <v>0</v>
       </c>
       <c r="P129">
-        <v>0</v>
+        <v>207836</v>
       </c>
       <c r="Q129">
         <v>0</v>
@@ -14171,10 +14171,10 @@
         <v>0</v>
       </c>
       <c r="T129">
-        <v>0</v>
+        <v>5275217</v>
       </c>
       <c r="U129">
-        <v>-224032</v>
+        <v>0</v>
       </c>
       <c r="V129">
         <v>0</v>
@@ -14192,7 +14192,7 @@
         <v>0</v>
       </c>
       <c r="AA129">
-        <v>224032</v>
+        <v>0</v>
       </c>
       <c r="AB129"/>
       <c r="AC129" t="s">
@@ -14215,29 +14215,29 @@
         <v>524</v>
       </c>
       <c r="D130" t="s">
-        <v>210</v>
+        <v>51</v>
       </c>
       <c r="E130" t="s">
-        <v>441</v>
+        <v>525</v>
       </c>
       <c r="F130" t="s">
         <v>38</v>
       </c>
       <c r="G130" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="s">
-        <v>347</v>
+        <v>526</v>
       </c>
       <c r="J130"/>
       <c r="K130">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="L130">
-        <v>5067381</v>
+        <v>4200000</v>
       </c>
       <c r="M130">
         <v>0</v>
@@ -14249,7 +14249,7 @@
         <v>0</v>
       </c>
       <c r="P130">
-        <v>207836</v>
+        <v>178080</v>
       </c>
       <c r="Q130">
         <v>0</v>
@@ -14261,10 +14261,10 @@
         <v>0</v>
       </c>
       <c r="T130">
-        <v>5275217</v>
+        <v>4378080</v>
       </c>
       <c r="U130">
-        <v>0</v>
+        <v>-176400</v>
       </c>
       <c r="V130">
         <v>0</v>
@@ -14282,7 +14282,7 @@
         <v>0</v>
       </c>
       <c r="AA130">
-        <v>0</v>
+        <v>176400</v>
       </c>
       <c r="AB130"/>
       <c r="AC130" t="s">
@@ -14291,7 +14291,7 @@
       <c r="AD130"/>
       <c r="AE130"/>
       <c r="AF130" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
     </row>
     <row r="131" spans="1:32">
@@ -14299,16 +14299,16 @@
         <v>124</v>
       </c>
       <c r="B131" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="C131" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="D131" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="E131" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="F131" t="s">
         <v>38</v>
@@ -14317,17 +14317,17 @@
         <v>39</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="J131"/>
       <c r="K131">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="L131">
-        <v>4200000</v>
+        <v>4000000</v>
       </c>
       <c r="M131">
         <v>0</v>
@@ -14339,7 +14339,7 @@
         <v>0</v>
       </c>
       <c r="P131">
-        <v>178080</v>
+        <v>169600</v>
       </c>
       <c r="Q131">
         <v>0</v>
@@ -14351,10 +14351,10 @@
         <v>0</v>
       </c>
       <c r="T131">
-        <v>4378080</v>
+        <v>4169600</v>
       </c>
       <c r="U131">
-        <v>-176400</v>
+        <v>168000</v>
       </c>
       <c r="V131">
         <v>0</v>
@@ -14369,10 +14369,10 @@
         <v>0</v>
       </c>
       <c r="Z131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA131">
-        <v>176400</v>
+        <v>3191999</v>
       </c>
       <c r="AB131"/>
       <c r="AC131" t="s">
@@ -14381,7 +14381,7 @@
       <c r="AD131"/>
       <c r="AE131"/>
       <c r="AF131" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="132" spans="1:32">
@@ -14389,16 +14389,16 @@
         <v>125</v>
       </c>
       <c r="B132" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C132" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D132" t="s">
         <v>36</v>
       </c>
       <c r="E132" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="F132" t="s">
         <v>38</v>
@@ -14410,14 +14410,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="J132"/>
       <c r="K132">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="L132">
-        <v>4000000</v>
+        <v>3940973</v>
       </c>
       <c r="M132">
         <v>0</v>
@@ -14429,7 +14429,7 @@
         <v>0</v>
       </c>
       <c r="P132">
-        <v>169600</v>
+        <v>214874</v>
       </c>
       <c r="Q132">
         <v>0</v>
@@ -14441,10 +14441,10 @@
         <v>0</v>
       </c>
       <c r="T132">
-        <v>4169600</v>
+        <v>4155847</v>
       </c>
       <c r="U132">
-        <v>168000</v>
+        <v>-177344</v>
       </c>
       <c r="V132">
         <v>0</v>
@@ -14459,10 +14459,10 @@
         <v>0</v>
       </c>
       <c r="Z132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA132">
-        <v>3191999</v>
+        <v>3724220</v>
       </c>
       <c r="AB132"/>
       <c r="AC132" t="s">
@@ -14471,7 +14471,7 @@
       <c r="AD132"/>
       <c r="AE132"/>
       <c r="AF132" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
     </row>
     <row r="133" spans="1:32">
@@ -14479,35 +14479,35 @@
         <v>126</v>
       </c>
       <c r="B133" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="C133" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="D133" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="E133" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="F133" t="s">
         <v>38</v>
       </c>
       <c r="G133" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H133">
         <v>0</v>
       </c>
       <c r="I133" t="s">
-        <v>538</v>
+        <v>173</v>
       </c>
       <c r="J133"/>
       <c r="K133">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L133">
-        <v>3940973</v>
+        <v>0</v>
       </c>
       <c r="M133">
         <v>0</v>
@@ -14519,7 +14519,7 @@
         <v>0</v>
       </c>
       <c r="P133">
-        <v>214874</v>
+        <v>0</v>
       </c>
       <c r="Q133">
         <v>0</v>
@@ -14531,10 +14531,10 @@
         <v>0</v>
       </c>
       <c r="T133">
-        <v>4155847</v>
+        <v>0</v>
       </c>
       <c r="U133">
-        <v>-177344</v>
+        <v>0</v>
       </c>
       <c r="V133">
         <v>0</v>
@@ -14543,16 +14543,16 @@
         <v>0</v>
       </c>
       <c r="X133">
-        <v>0</v>
+        <v>450000</v>
       </c>
       <c r="Y133">
         <v>0</v>
       </c>
       <c r="Z133">
-        <v>0</v>
+        <v>450002</v>
       </c>
       <c r="AA133">
-        <v>3724220</v>
+        <v>-450002</v>
       </c>
       <c r="AB133"/>
       <c r="AC133" t="s">
@@ -14575,29 +14575,29 @@
         <v>541</v>
       </c>
       <c r="D134" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="E134" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="F134" t="s">
         <v>38</v>
       </c>
       <c r="G134" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H134">
         <v>0</v>
       </c>
       <c r="I134" t="s">
-        <v>173</v>
+        <v>347</v>
       </c>
       <c r="J134"/>
       <c r="K134">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L134">
-        <v>0</v>
+        <v>4000000</v>
       </c>
       <c r="M134">
         <v>0</v>
@@ -14609,7 +14609,7 @@
         <v>0</v>
       </c>
       <c r="P134">
-        <v>0</v>
+        <v>169600</v>
       </c>
       <c r="Q134">
         <v>0</v>
@@ -14621,7 +14621,7 @@
         <v>0</v>
       </c>
       <c r="T134">
-        <v>0</v>
+        <v>4169600</v>
       </c>
       <c r="U134">
         <v>0</v>
@@ -14633,16 +14633,16 @@
         <v>0</v>
       </c>
       <c r="X134">
-        <v>450000</v>
+        <v>0</v>
       </c>
       <c r="Y134">
         <v>0</v>
       </c>
       <c r="Z134">
-        <v>450002</v>
+        <v>0</v>
       </c>
       <c r="AA134">
-        <v>-450002</v>
+        <v>3360000</v>
       </c>
       <c r="AB134"/>
       <c r="AC134" t="s">
@@ -14668,7 +14668,7 @@
         <v>36</v>
       </c>
       <c r="E135" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="F135" t="s">
         <v>38</v>
@@ -14680,14 +14680,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="s">
-        <v>347</v>
+        <v>437</v>
       </c>
       <c r="J135"/>
       <c r="K135">
         <v>3</v>
       </c>
       <c r="L135">
-        <v>4000000</v>
+        <v>3940973</v>
       </c>
       <c r="M135">
         <v>0</v>
@@ -14699,7 +14699,7 @@
         <v>0</v>
       </c>
       <c r="P135">
-        <v>169600</v>
+        <v>214874</v>
       </c>
       <c r="Q135">
         <v>0</v>
@@ -14711,7 +14711,7 @@
         <v>0</v>
       </c>
       <c r="T135">
-        <v>4169600</v>
+        <v>4155847</v>
       </c>
       <c r="U135">
         <v>0</v>
@@ -14729,10 +14729,10 @@
         <v>0</v>
       </c>
       <c r="Z135">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AA135">
-        <v>3360000</v>
+        <v>-11</v>
       </c>
       <c r="AB135"/>
       <c r="AC135" t="s">
@@ -14758,7 +14758,7 @@
         <v>36</v>
       </c>
       <c r="E136" t="s">
-        <v>537</v>
+        <v>548</v>
       </c>
       <c r="F136" t="s">
         <v>38</v>
@@ -14777,10 +14777,10 @@
         <v>3</v>
       </c>
       <c r="L136">
-        <v>3940973</v>
+        <v>3648035</v>
       </c>
       <c r="M136">
-        <v>0</v>
+        <v>700000</v>
       </c>
       <c r="N136">
         <v>0</v>
@@ -14789,7 +14789,7 @@
         <v>0</v>
       </c>
       <c r="P136">
-        <v>214874</v>
+        <v>154677</v>
       </c>
       <c r="Q136">
         <v>0</v>
@@ -14798,13 +14798,13 @@
         <v>0</v>
       </c>
       <c r="S136">
-        <v>0</v>
+        <v>700000</v>
       </c>
       <c r="T136">
-        <v>4155847</v>
+        <v>5202712</v>
       </c>
       <c r="U136">
-        <v>0</v>
+        <v>188217</v>
       </c>
       <c r="V136">
         <v>0</v>
@@ -14819,10 +14819,10 @@
         <v>0</v>
       </c>
       <c r="Z136">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AA136">
-        <v>-11</v>
+        <v>3576131</v>
       </c>
       <c r="AB136"/>
       <c r="AC136" t="s">
@@ -14831,7 +14831,7 @@
       <c r="AD136"/>
       <c r="AE136"/>
       <c r="AF136" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="137" spans="1:32">
@@ -14839,16 +14839,16 @@
         <v>130</v>
       </c>
       <c r="B137" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C137" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D137" t="s">
-        <v>36</v>
+        <v>552</v>
       </c>
       <c r="E137" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="F137" t="s">
         <v>38</v>
@@ -14860,17 +14860,17 @@
         <v>0</v>
       </c>
       <c r="I137" t="s">
-        <v>437</v>
+        <v>409</v>
       </c>
       <c r="J137"/>
       <c r="K137">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L137">
-        <v>3648035</v>
+        <v>0</v>
       </c>
       <c r="M137">
-        <v>700000</v>
+        <v>0</v>
       </c>
       <c r="N137">
         <v>0</v>
@@ -14879,7 +14879,7 @@
         <v>0</v>
       </c>
       <c r="P137">
-        <v>154677</v>
+        <v>0</v>
       </c>
       <c r="Q137">
         <v>0</v>
@@ -14888,13 +14888,13 @@
         <v>0</v>
       </c>
       <c r="S137">
-        <v>700000</v>
+        <v>0</v>
       </c>
       <c r="T137">
-        <v>5202712</v>
+        <v>0</v>
       </c>
       <c r="U137">
-        <v>188217</v>
+        <v>1399524</v>
       </c>
       <c r="V137">
         <v>0</v>
@@ -14909,10 +14909,10 @@
         <v>0</v>
       </c>
       <c r="Z137">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AA137">
-        <v>3576131</v>
+        <v>2599112</v>
       </c>
       <c r="AB137"/>
       <c r="AC137" t="s">
@@ -14921,7 +14921,7 @@
       <c r="AD137"/>
       <c r="AE137"/>
       <c r="AF137" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
     </row>
     <row r="138" spans="1:32">
@@ -14929,16 +14929,16 @@
         <v>131</v>
       </c>
       <c r="B138" t="s">
+        <v>555</v>
+      </c>
+      <c r="C138" t="s">
+        <v>556</v>
+      </c>
+      <c r="D138" t="s">
+        <v>36</v>
+      </c>
+      <c r="E138" t="s">
         <v>553</v>
-      </c>
-      <c r="C138" t="s">
-        <v>554</v>
-      </c>
-      <c r="D138" t="s">
-        <v>555</v>
-      </c>
-      <c r="E138" t="s">
-        <v>556</v>
       </c>
       <c r="F138" t="s">
         <v>38</v>
@@ -14950,14 +14950,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="s">
-        <v>409</v>
+        <v>557</v>
       </c>
       <c r="J138"/>
       <c r="K138">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L138">
-        <v>0</v>
+        <v>4199029</v>
       </c>
       <c r="M138">
         <v>0</v>
@@ -14969,7 +14969,7 @@
         <v>0</v>
       </c>
       <c r="P138">
-        <v>0</v>
+        <v>178039</v>
       </c>
       <c r="Q138">
         <v>0</v>
@@ -14981,10 +14981,10 @@
         <v>0</v>
       </c>
       <c r="T138">
-        <v>0</v>
+        <v>4377068</v>
       </c>
       <c r="U138">
-        <v>1399524</v>
+        <v>1234513</v>
       </c>
       <c r="V138">
         <v>0</v>
@@ -15002,7 +15002,7 @@
         <v>7</v>
       </c>
       <c r="AA138">
-        <v>2599112</v>
+        <v>2292664</v>
       </c>
       <c r="AB138"/>
       <c r="AC138" t="s">
@@ -15011,7 +15011,7 @@
       <c r="AD138"/>
       <c r="AE138"/>
       <c r="AF138" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="139" spans="1:32">
@@ -15019,35 +15019,35 @@
         <v>132</v>
       </c>
       <c r="B139" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C139" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D139" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="E139" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="F139" t="s">
         <v>38</v>
       </c>
       <c r="G139" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H139">
         <v>0</v>
       </c>
       <c r="I139" t="s">
-        <v>560</v>
+        <v>535</v>
       </c>
       <c r="J139"/>
       <c r="K139">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L139">
-        <v>4199029</v>
+        <v>5358248</v>
       </c>
       <c r="M139">
         <v>0</v>
@@ -15059,7 +15059,7 @@
         <v>0</v>
       </c>
       <c r="P139">
-        <v>178039</v>
+        <v>227190</v>
       </c>
       <c r="Q139">
         <v>0</v>
@@ -15071,10 +15071,10 @@
         <v>0</v>
       </c>
       <c r="T139">
-        <v>4377068</v>
+        <v>5585438</v>
       </c>
       <c r="U139">
-        <v>1234513</v>
+        <v>2925598</v>
       </c>
       <c r="V139">
         <v>0</v>
@@ -15083,16 +15083,16 @@
         <v>0</v>
       </c>
       <c r="X139">
-        <v>0</v>
+        <v>450000</v>
       </c>
       <c r="Y139">
         <v>0</v>
       </c>
       <c r="Z139">
-        <v>7</v>
+        <v>450013</v>
       </c>
       <c r="AA139">
-        <v>2292664</v>
+        <v>1125317</v>
       </c>
       <c r="AB139"/>
       <c r="AC139" t="s">
@@ -15101,7 +15101,7 @@
       <c r="AD139"/>
       <c r="AE139"/>
       <c r="AF139" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="140" spans="1:32">
@@ -15109,35 +15109,35 @@
         <v>133</v>
       </c>
       <c r="B140" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C140" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="D140" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="E140" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="F140" t="s">
         <v>38</v>
       </c>
       <c r="G140" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H140">
         <v>0</v>
       </c>
       <c r="I140" t="s">
-        <v>538</v>
+        <v>117</v>
       </c>
       <c r="J140"/>
       <c r="K140">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L140">
-        <v>5358248</v>
+        <v>5158248</v>
       </c>
       <c r="M140">
         <v>0</v>
@@ -15149,7 +15149,7 @@
         <v>0</v>
       </c>
       <c r="P140">
-        <v>227190</v>
+        <v>218710</v>
       </c>
       <c r="Q140">
         <v>0</v>
@@ -15161,28 +15161,28 @@
         <v>0</v>
       </c>
       <c r="T140">
-        <v>5585438</v>
+        <v>5376958</v>
       </c>
       <c r="U140">
-        <v>2925598</v>
+        <v>3466336</v>
       </c>
       <c r="V140">
         <v>0</v>
       </c>
       <c r="W140">
-        <v>0</v>
+        <v>50000.0</v>
       </c>
       <c r="X140">
-        <v>450000</v>
+        <v>0</v>
       </c>
       <c r="Y140">
         <v>0</v>
       </c>
       <c r="Z140">
-        <v>450013</v>
+        <v>16</v>
       </c>
       <c r="AA140">
-        <v>1125317</v>
+        <v>816576</v>
       </c>
       <c r="AB140"/>
       <c r="AC140" t="s">
@@ -15205,10 +15205,10 @@
         <v>567</v>
       </c>
       <c r="D141" t="s">
-        <v>36</v>
+        <v>116</v>
       </c>
       <c r="E141" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="F141" t="s">
         <v>38</v>
@@ -15220,11 +15220,11 @@
         <v>0</v>
       </c>
       <c r="I141" t="s">
-        <v>117</v>
+        <v>568</v>
       </c>
       <c r="J141"/>
       <c r="K141">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L141">
         <v>5158248</v>
@@ -15254,13 +15254,13 @@
         <v>5376958</v>
       </c>
       <c r="U141">
-        <v>3466336</v>
+        <v>-866584</v>
       </c>
       <c r="V141">
         <v>0</v>
       </c>
       <c r="W141">
-        <v>50000.0</v>
+        <v>0</v>
       </c>
       <c r="X141">
         <v>0</v>
@@ -15269,10 +15269,10 @@
         <v>0</v>
       </c>
       <c r="Z141">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AA141">
-        <v>816576</v>
+        <v>866584</v>
       </c>
       <c r="AB141"/>
       <c r="AC141" t="s">
@@ -15281,7 +15281,7 @@
       <c r="AD141"/>
       <c r="AE141"/>
       <c r="AF141" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="142" spans="1:32">
@@ -15289,16 +15289,16 @@
         <v>135</v>
       </c>
       <c r="B142" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C142" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D142" t="s">
-        <v>116</v>
+        <v>36</v>
       </c>
       <c r="E142" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="F142" t="s">
         <v>38</v>
@@ -15310,7 +15310,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="J142"/>
       <c r="K142">
@@ -15344,7 +15344,7 @@
         <v>5376958</v>
       </c>
       <c r="U142">
-        <v>-866584</v>
+        <v>2383106</v>
       </c>
       <c r="V142">
         <v>0</v>
@@ -15359,10 +15359,10 @@
         <v>0</v>
       </c>
       <c r="Z142">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AA142">
-        <v>866584</v>
+        <v>1949811</v>
       </c>
       <c r="AB142"/>
       <c r="AC142" t="s">
@@ -15385,10 +15385,10 @@
         <v>574</v>
       </c>
       <c r="D143" t="s">
-        <v>36</v>
+        <v>575</v>
       </c>
       <c r="E143" t="s">
-        <v>564</v>
+        <v>278</v>
       </c>
       <c r="F143" t="s">
         <v>38</v>
@@ -15400,14 +15400,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="s">
-        <v>571</v>
+        <v>288</v>
       </c>
       <c r="J143"/>
       <c r="K143">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="L143">
-        <v>5158248</v>
+        <v>5517381</v>
       </c>
       <c r="M143">
         <v>0</v>
@@ -15419,7 +15419,7 @@
         <v>0</v>
       </c>
       <c r="P143">
-        <v>218710</v>
+        <v>233937</v>
       </c>
       <c r="Q143">
         <v>0</v>
@@ -15431,10 +15431,10 @@
         <v>0</v>
       </c>
       <c r="T143">
-        <v>5376958</v>
+        <v>5751318</v>
       </c>
       <c r="U143">
-        <v>2383106</v>
+        <v>0</v>
       </c>
       <c r="V143">
         <v>0</v>
@@ -15449,10 +15449,10 @@
         <v>0</v>
       </c>
       <c r="Z143">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AA143">
-        <v>1949811</v>
+        <v>5488384</v>
       </c>
       <c r="AB143"/>
       <c r="AC143" t="s">
@@ -15461,7 +15461,7 @@
       <c r="AD143"/>
       <c r="AE143"/>
       <c r="AF143" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="144" spans="1:32">
@@ -15469,13 +15469,13 @@
         <v>137</v>
       </c>
       <c r="B144" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C144" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="D144" t="s">
-        <v>578</v>
+        <v>283</v>
       </c>
       <c r="E144" t="s">
         <v>278</v>
@@ -15487,7 +15487,7 @@
         <v>39</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="s">
         <v>288</v>
@@ -15497,10 +15497,10 @@
         <v>12</v>
       </c>
       <c r="L144">
-        <v>5517381</v>
+        <v>5067381</v>
       </c>
       <c r="M144">
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="N144">
         <v>0</v>
@@ -15509,22 +15509,22 @@
         <v>0</v>
       </c>
       <c r="P144">
-        <v>233937</v>
+        <v>214857</v>
       </c>
       <c r="Q144">
         <v>0</v>
       </c>
       <c r="R144">
-        <v>0</v>
+        <v>248447</v>
       </c>
       <c r="S144">
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="T144">
-        <v>5751318</v>
+        <v>5830685</v>
       </c>
       <c r="U144">
-        <v>0</v>
+        <v>521738</v>
       </c>
       <c r="V144">
         <v>0</v>
@@ -15539,10 +15539,10 @@
         <v>0</v>
       </c>
       <c r="Z144">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA144">
-        <v>5488384</v>
+        <v>4944088</v>
       </c>
       <c r="AB144"/>
       <c r="AC144" t="s">
@@ -15565,7 +15565,7 @@
         <v>581</v>
       </c>
       <c r="D145" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="E145" t="s">
         <v>278</v>
@@ -15577,7 +15577,7 @@
         <v>39</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="s">
         <v>288</v>
@@ -15590,7 +15590,7 @@
         <v>5067381</v>
       </c>
       <c r="M145">
-        <v>150000</v>
+        <v>300000</v>
       </c>
       <c r="N145">
         <v>0</v>
@@ -15605,22 +15605,22 @@
         <v>0</v>
       </c>
       <c r="R145">
-        <v>248447</v>
+        <v>0</v>
       </c>
       <c r="S145">
-        <v>150000</v>
+        <v>300000</v>
       </c>
       <c r="T145">
-        <v>5830685</v>
+        <v>5882238</v>
       </c>
       <c r="U145">
-        <v>521738</v>
+        <v>268369</v>
       </c>
       <c r="V145">
         <v>0</v>
       </c>
       <c r="W145">
-        <v>0</v>
+        <v>50000.0</v>
       </c>
       <c r="X145">
         <v>0</v>
@@ -15629,10 +15629,10 @@
         <v>0</v>
       </c>
       <c r="Z145">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA145">
-        <v>4944088</v>
+        <v>5049011</v>
       </c>
       <c r="AB145"/>
       <c r="AC145" t="s">
@@ -15655,7 +15655,7 @@
         <v>584</v>
       </c>
       <c r="D146" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="E146" t="s">
         <v>278</v>
@@ -15680,7 +15680,7 @@
         <v>5067381</v>
       </c>
       <c r="M146">
-        <v>300000</v>
+        <v>200000</v>
       </c>
       <c r="N146">
         <v>0</v>
@@ -15698,19 +15698,19 @@
         <v>0</v>
       </c>
       <c r="S146">
-        <v>300000</v>
+        <v>200000</v>
       </c>
       <c r="T146">
-        <v>5882238</v>
+        <v>5682238</v>
       </c>
       <c r="U146">
-        <v>268369</v>
+        <v>0</v>
       </c>
       <c r="V146">
         <v>0</v>
       </c>
       <c r="W146">
-        <v>50000.0</v>
+        <v>0</v>
       </c>
       <c r="X146">
         <v>0</v>
@@ -15719,10 +15719,10 @@
         <v>0</v>
       </c>
       <c r="Z146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA146">
-        <v>5049011</v>
+        <v>5253553</v>
       </c>
       <c r="AB146"/>
       <c r="AC146" t="s">
@@ -15760,11 +15760,11 @@
         <v>0</v>
       </c>
       <c r="I147" t="s">
-        <v>288</v>
+        <v>588</v>
       </c>
       <c r="J147"/>
       <c r="K147">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="L147">
         <v>5067381</v>
@@ -15794,7 +15794,7 @@
         <v>5682238</v>
       </c>
       <c r="U147">
-        <v>0</v>
+        <v>229017</v>
       </c>
       <c r="V147">
         <v>0</v>
@@ -15809,10 +15809,10 @@
         <v>0</v>
       </c>
       <c r="Z147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA147">
-        <v>5253553</v>
+        <v>5038363</v>
       </c>
       <c r="AB147"/>
       <c r="AC147" t="s">
@@ -15821,7 +15821,7 @@
       <c r="AD147"/>
       <c r="AE147"/>
       <c r="AF147" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="148" spans="1:32">
@@ -15829,13 +15829,13 @@
         <v>141</v>
       </c>
       <c r="B148" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C148" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D148" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="E148" t="s">
         <v>278</v>
@@ -15844,23 +15844,23 @@
         <v>38</v>
       </c>
       <c r="G148" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="s">
-        <v>591</v>
+        <v>288</v>
       </c>
       <c r="J148"/>
       <c r="K148">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="L148">
         <v>5067381</v>
       </c>
       <c r="M148">
-        <v>200000</v>
+        <v>150000</v>
       </c>
       <c r="N148">
         <v>0</v>
@@ -15878,13 +15878,13 @@
         <v>0</v>
       </c>
       <c r="S148">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="T148">
-        <v>5682238</v>
+        <v>5432238</v>
       </c>
       <c r="U148">
-        <v>229017</v>
+        <v>-260869</v>
       </c>
       <c r="V148">
         <v>0</v>
@@ -15899,10 +15899,10 @@
         <v>0</v>
       </c>
       <c r="Z148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA148">
-        <v>5038363</v>
+        <v>260869</v>
       </c>
       <c r="AB148"/>
       <c r="AC148" t="s">
@@ -15934,7 +15934,7 @@
         <v>38</v>
       </c>
       <c r="G149" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="H149">
         <v>2</v>
@@ -15968,13 +15968,13 @@
         <v>0</v>
       </c>
       <c r="S149">
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="T149">
-        <v>5432238</v>
+        <v>5582238</v>
       </c>
       <c r="U149">
-        <v>-260869</v>
+        <v>260869</v>
       </c>
       <c r="V149">
         <v>0</v>
@@ -15989,10 +15989,10 @@
         <v>0</v>
       </c>
       <c r="Z149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA149">
-        <v>260869</v>
+        <v>4956511</v>
       </c>
       <c r="AB149"/>
       <c r="AC149" t="s">
@@ -16015,7 +16015,7 @@
         <v>597</v>
       </c>
       <c r="D150" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="E150" t="s">
         <v>278</v>
@@ -16024,23 +16024,23 @@
         <v>38</v>
       </c>
       <c r="G150" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="s">
-        <v>288</v>
+        <v>598</v>
       </c>
       <c r="J150"/>
       <c r="K150">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="L150">
         <v>5067381</v>
       </c>
       <c r="M150">
-        <v>150000</v>
+        <v>200000</v>
       </c>
       <c r="N150">
         <v>0</v>
@@ -16058,13 +16058,13 @@
         <v>0</v>
       </c>
       <c r="S150">
-        <v>150000</v>
+        <v>200000</v>
       </c>
       <c r="T150">
-        <v>5582238</v>
+        <v>5682238</v>
       </c>
       <c r="U150">
-        <v>260869</v>
+        <v>250828</v>
       </c>
       <c r="V150">
         <v>0</v>
@@ -16073,16 +16073,16 @@
         <v>0</v>
       </c>
       <c r="X150">
-        <v>0</v>
+        <v>450000</v>
       </c>
       <c r="Y150">
         <v>0</v>
       </c>
       <c r="Z150">
-        <v>1</v>
+        <v>450001</v>
       </c>
       <c r="AA150">
-        <v>4956511</v>
+        <v>4566552</v>
       </c>
       <c r="AB150"/>
       <c r="AC150" t="s">
@@ -16091,7 +16091,7 @@
       <c r="AD150"/>
       <c r="AE150"/>
       <c r="AF150" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="151" spans="1:32">
@@ -16099,38 +16099,38 @@
         <v>144</v>
       </c>
       <c r="B151" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C151" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D151" t="s">
-        <v>292</v>
+        <v>36</v>
       </c>
       <c r="E151" t="s">
-        <v>278</v>
+        <v>189</v>
       </c>
       <c r="F151" t="s">
         <v>38</v>
       </c>
       <c r="G151" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H151">
         <v>0</v>
       </c>
       <c r="I151" t="s">
-        <v>601</v>
+        <v>357</v>
       </c>
       <c r="J151"/>
       <c r="K151">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="L151">
         <v>5067381</v>
       </c>
       <c r="M151">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="N151">
         <v>0</v>
@@ -16148,31 +16148,31 @@
         <v>0</v>
       </c>
       <c r="S151">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="T151">
-        <v>5682238</v>
+        <v>5282238</v>
       </c>
       <c r="U151">
-        <v>250828</v>
+        <v>0</v>
       </c>
       <c r="V151">
         <v>0</v>
       </c>
       <c r="W151">
-        <v>0</v>
+        <v>50000.0</v>
       </c>
       <c r="X151">
-        <v>450000</v>
+        <v>0</v>
       </c>
       <c r="Y151">
         <v>0</v>
       </c>
       <c r="Z151">
-        <v>450001</v>
+        <v>0</v>
       </c>
       <c r="AA151">
-        <v>4566552</v>
+        <v>-50000</v>
       </c>
       <c r="AB151"/>
       <c r="AC151" t="s">
@@ -16198,7 +16198,7 @@
         <v>36</v>
       </c>
       <c r="E152" t="s">
-        <v>189</v>
+        <v>605</v>
       </c>
       <c r="F152" t="s">
         <v>38</v>
@@ -16210,11 +16210,11 @@
         <v>0</v>
       </c>
       <c r="I152" t="s">
-        <v>357</v>
+        <v>606</v>
       </c>
       <c r="J152"/>
       <c r="K152">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L152">
         <v>5067381</v>
@@ -16229,7 +16229,7 @@
         <v>0</v>
       </c>
       <c r="P152">
-        <v>214857</v>
+        <v>170300</v>
       </c>
       <c r="Q152">
         <v>0</v>
@@ -16241,16 +16241,16 @@
         <v>0</v>
       </c>
       <c r="T152">
-        <v>5282238</v>
+        <v>5237681</v>
       </c>
       <c r="U152">
-        <v>0</v>
+        <v>1480560</v>
       </c>
       <c r="V152">
         <v>0</v>
       </c>
       <c r="W152">
-        <v>50000.0</v>
+        <v>0</v>
       </c>
       <c r="X152">
         <v>0</v>
@@ -16259,10 +16259,10 @@
         <v>0</v>
       </c>
       <c r="Z152">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AA152">
-        <v>-50000</v>
+        <v>2616416</v>
       </c>
       <c r="AB152"/>
       <c r="AC152" t="s">
@@ -16271,7 +16271,7 @@
       <c r="AD152"/>
       <c r="AE152"/>
       <c r="AF152" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="153" spans="1:32">
@@ -16279,16 +16279,16 @@
         <v>146</v>
       </c>
       <c r="B153" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="C153" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="D153" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="E153" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="F153" t="s">
         <v>38</v>
@@ -16300,14 +16300,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="J153"/>
       <c r="K153">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="L153">
-        <v>5067381</v>
+        <v>0</v>
       </c>
       <c r="M153">
         <v>0</v>
@@ -16319,7 +16319,7 @@
         <v>0</v>
       </c>
       <c r="P153">
-        <v>170300</v>
+        <v>0</v>
       </c>
       <c r="Q153">
         <v>0</v>
@@ -16331,10 +16331,10 @@
         <v>0</v>
       </c>
       <c r="T153">
-        <v>5237681</v>
+        <v>0</v>
       </c>
       <c r="U153">
-        <v>1480560</v>
+        <v>1013475</v>
       </c>
       <c r="V153">
         <v>0</v>
@@ -16349,10 +16349,10 @@
         <v>0</v>
       </c>
       <c r="Z153">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AA153">
-        <v>2616416</v>
+        <v>3075330</v>
       </c>
       <c r="AB153"/>
       <c r="AC153" t="s">
@@ -16361,7 +16361,7 @@
       <c r="AD153"/>
       <c r="AE153"/>
       <c r="AF153" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="154" spans="1:32">
@@ -16369,16 +16369,16 @@
         <v>147</v>
       </c>
       <c r="B154" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C154" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="D154" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="E154" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="F154" t="s">
         <v>38</v>
@@ -16390,14 +16390,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="J154"/>
       <c r="K154">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="L154">
-        <v>0</v>
+        <v>5067381</v>
       </c>
       <c r="M154">
         <v>0</v>
@@ -16409,7 +16409,7 @@
         <v>0</v>
       </c>
       <c r="P154">
-        <v>0</v>
+        <v>214857</v>
       </c>
       <c r="Q154">
         <v>0</v>
@@ -16421,16 +16421,16 @@
         <v>0</v>
       </c>
       <c r="T154">
-        <v>0</v>
+        <v>5282238</v>
       </c>
       <c r="U154">
-        <v>1013475</v>
+        <v>0</v>
       </c>
       <c r="V154">
         <v>0</v>
       </c>
       <c r="W154">
-        <v>0</v>
+        <v>50000.0</v>
       </c>
       <c r="X154">
         <v>0</v>
@@ -16439,10 +16439,10 @@
         <v>0</v>
       </c>
       <c r="Z154">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AA154">
-        <v>3075330</v>
+        <v>4206600</v>
       </c>
       <c r="AB154"/>
       <c r="AC154" t="s">
@@ -16451,7 +16451,7 @@
       <c r="AD154"/>
       <c r="AE154"/>
       <c r="AF154" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="155" spans="1:32">
@@ -16459,16 +16459,16 @@
         <v>148</v>
       </c>
       <c r="B155" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="C155" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="D155" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="E155" t="s">
-        <v>617</v>
+        <v>548</v>
       </c>
       <c r="F155" t="s">
         <v>38</v>
@@ -16480,17 +16480,17 @@
         <v>0</v>
       </c>
       <c r="I155" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="J155"/>
       <c r="K155">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="L155">
-        <v>5067381</v>
+        <v>3648035</v>
       </c>
       <c r="M155">
-        <v>0</v>
+        <v>700000</v>
       </c>
       <c r="N155">
         <v>0</v>
@@ -16499,7 +16499,7 @@
         <v>0</v>
       </c>
       <c r="P155">
-        <v>214857</v>
+        <v>154677</v>
       </c>
       <c r="Q155">
         <v>0</v>
@@ -16508,13 +16508,13 @@
         <v>0</v>
       </c>
       <c r="S155">
-        <v>0</v>
+        <v>700000</v>
       </c>
       <c r="T155">
-        <v>5282238</v>
+        <v>5202712</v>
       </c>
       <c r="U155">
-        <v>0</v>
+        <v>1394134</v>
       </c>
       <c r="V155">
         <v>0</v>
@@ -16529,10 +16529,10 @@
         <v>0</v>
       </c>
       <c r="Z155">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AA155">
-        <v>4206600</v>
+        <v>2539091</v>
       </c>
       <c r="AB155"/>
       <c r="AC155" t="s">
@@ -16541,7 +16541,7 @@
       <c r="AD155"/>
       <c r="AE155"/>
       <c r="AF155" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="156" spans="1:32">
@@ -16549,32 +16549,32 @@
         <v>149</v>
       </c>
       <c r="B156" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C156" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="D156" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="E156" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="F156" t="s">
         <v>38</v>
       </c>
       <c r="G156" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H156">
         <v>0</v>
       </c>
       <c r="I156" t="s">
-        <v>622</v>
+        <v>303</v>
       </c>
       <c r="J156"/>
       <c r="K156">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="L156">
         <v>3648035</v>
@@ -16604,7 +16604,7 @@
         <v>5202712</v>
       </c>
       <c r="U156">
-        <v>1394134</v>
+        <v>1505736</v>
       </c>
       <c r="V156">
         <v>0</v>
@@ -16619,10 +16619,10 @@
         <v>0</v>
       </c>
       <c r="Z156">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AA156">
-        <v>2539091</v>
+        <v>2208605</v>
       </c>
       <c r="AB156"/>
       <c r="AC156" t="s">
@@ -16645,32 +16645,32 @@
         <v>625</v>
       </c>
       <c r="D157" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="E157" t="s">
-        <v>551</v>
+        <v>189</v>
       </c>
       <c r="F157" t="s">
         <v>38</v>
       </c>
       <c r="G157" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I157" t="s">
-        <v>303</v>
+        <v>626</v>
       </c>
       <c r="J157"/>
       <c r="K157">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="L157">
-        <v>3648035</v>
+        <v>5067381</v>
       </c>
       <c r="M157">
-        <v>700000</v>
+        <v>300000</v>
       </c>
       <c r="N157">
         <v>0</v>
@@ -16679,7 +16679,7 @@
         <v>0</v>
       </c>
       <c r="P157">
-        <v>154677</v>
+        <v>214857</v>
       </c>
       <c r="Q157">
         <v>0</v>
@@ -16688,19 +16688,19 @@
         <v>0</v>
       </c>
       <c r="S157">
-        <v>700000</v>
+        <v>0</v>
       </c>
       <c r="T157">
-        <v>5202712</v>
+        <v>5582238</v>
       </c>
       <c r="U157">
-        <v>1505736</v>
+        <v>0</v>
       </c>
       <c r="V157">
         <v>0</v>
       </c>
       <c r="W157">
-        <v>50000.0</v>
+        <v>0</v>
       </c>
       <c r="X157">
         <v>0</v>
@@ -16709,10 +16709,10 @@
         <v>0</v>
       </c>
       <c r="Z157">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AA157">
-        <v>2208605</v>
+        <v>0</v>
       </c>
       <c r="AB157"/>
       <c r="AC157" t="s">
@@ -16721,7 +16721,7 @@
       <c r="AD157"/>
       <c r="AE157"/>
       <c r="AF157" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="158" spans="1:32">
@@ -16729,10 +16729,10 @@
         <v>151</v>
       </c>
       <c r="B158" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C158" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D158" t="s">
         <v>51</v>
@@ -16747,14 +16747,14 @@
         <v>39</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158" t="s">
-        <v>629</v>
+        <v>222</v>
       </c>
       <c r="J158"/>
       <c r="K158">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L158">
         <v>5067381</v>
@@ -16778,10 +16778,10 @@
         <v>0</v>
       </c>
       <c r="S158">
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="T158">
-        <v>5582238</v>
+        <v>5882238</v>
       </c>
       <c r="U158">
         <v>0</v>
@@ -16802,7 +16802,7 @@
         <v>0</v>
       </c>
       <c r="AA158">
-        <v>0</v>
+        <v>5099934</v>
       </c>
       <c r="AB158"/>
       <c r="AC158" t="s">
@@ -16825,7 +16825,7 @@
         <v>632</v>
       </c>
       <c r="D159" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="E159" t="s">
         <v>189</v>
@@ -16834,23 +16834,23 @@
         <v>38</v>
       </c>
       <c r="G159" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="H159">
         <v>0</v>
       </c>
       <c r="I159" t="s">
-        <v>222</v>
+        <v>633</v>
       </c>
       <c r="J159"/>
       <c r="K159">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L159">
         <v>5067381</v>
       </c>
       <c r="M159">
-        <v>300000</v>
+        <v>0</v>
       </c>
       <c r="N159">
         <v>0</v>
@@ -16868,13 +16868,13 @@
         <v>0</v>
       </c>
       <c r="S159">
-        <v>300000</v>
+        <v>0</v>
       </c>
       <c r="T159">
-        <v>5882238</v>
+        <v>5282238</v>
       </c>
       <c r="U159">
-        <v>0</v>
+        <v>722103</v>
       </c>
       <c r="V159">
         <v>0</v>
@@ -16889,10 +16889,10 @@
         <v>0</v>
       </c>
       <c r="Z159">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA159">
-        <v>5099934</v>
+        <v>4091906</v>
       </c>
       <c r="AB159"/>
       <c r="AC159" t="s">
@@ -16901,7 +16901,7 @@
       <c r="AD159"/>
       <c r="AE159"/>
       <c r="AF159" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="160" spans="1:32">
@@ -16909,13 +16909,13 @@
         <v>153</v>
       </c>
       <c r="B160" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C160" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="D160" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="E160" t="s">
         <v>189</v>
@@ -16930,17 +16930,17 @@
         <v>0</v>
       </c>
       <c r="I160" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="J160"/>
       <c r="K160">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="L160">
         <v>5067381</v>
       </c>
       <c r="M160">
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="N160">
         <v>0</v>
@@ -16958,13 +16958,13 @@
         <v>0</v>
       </c>
       <c r="S160">
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="T160">
-        <v>5282238</v>
+        <v>5882238</v>
       </c>
       <c r="U160">
-        <v>722103</v>
+        <v>255701</v>
       </c>
       <c r="V160">
         <v>0</v>
@@ -16979,10 +16979,10 @@
         <v>0</v>
       </c>
       <c r="Z160">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA160">
-        <v>4091906</v>
+        <v>4858310</v>
       </c>
       <c r="AB160"/>
       <c r="AC160" t="s">
@@ -16991,7 +16991,7 @@
       <c r="AD160"/>
       <c r="AE160"/>
       <c r="AF160" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="161" spans="1:32">
@@ -16999,13 +16999,13 @@
         <v>154</v>
       </c>
       <c r="B161" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C161" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D161" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="E161" t="s">
         <v>189</v>
@@ -17020,17 +17020,17 @@
         <v>0</v>
       </c>
       <c r="I161" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="J161"/>
       <c r="K161">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L161">
         <v>5067381</v>
       </c>
       <c r="M161">
-        <v>300000</v>
+        <v>0</v>
       </c>
       <c r="N161">
         <v>0</v>
@@ -17048,13 +17048,13 @@
         <v>0</v>
       </c>
       <c r="S161">
-        <v>300000</v>
+        <v>0</v>
       </c>
       <c r="T161">
-        <v>5882238</v>
+        <v>5282238</v>
       </c>
       <c r="U161">
-        <v>255701</v>
+        <v>240701</v>
       </c>
       <c r="V161">
         <v>0</v>
@@ -17072,7 +17072,7 @@
         <v>1</v>
       </c>
       <c r="AA161">
-        <v>4858310</v>
+        <v>4573310</v>
       </c>
       <c r="AB161"/>
       <c r="AC161" t="s">
@@ -17081,7 +17081,7 @@
       <c r="AD161"/>
       <c r="AE161"/>
       <c r="AF161" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="162" spans="1:32">
@@ -17089,10 +17089,10 @@
         <v>155</v>
       </c>
       <c r="B162" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C162" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="D162" t="s">
         <v>36</v>
@@ -17104,17 +17104,17 @@
         <v>38</v>
       </c>
       <c r="G162" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="H162">
         <v>0</v>
       </c>
       <c r="I162" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="J162"/>
       <c r="K162">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="L162">
         <v>5067381</v>
@@ -17144,7 +17144,7 @@
         <v>5282238</v>
       </c>
       <c r="U162">
-        <v>240701</v>
+        <v>0</v>
       </c>
       <c r="V162">
         <v>0</v>
@@ -17159,10 +17159,10 @@
         <v>0</v>
       </c>
       <c r="Z162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA162">
-        <v>4573310</v>
+        <v>4814012</v>
       </c>
       <c r="AB162"/>
       <c r="AC162" t="s">
@@ -17171,7 +17171,7 @@
       <c r="AD162"/>
       <c r="AE162"/>
       <c r="AF162" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="163" spans="1:32">
@@ -17179,10 +17179,10 @@
         <v>156</v>
       </c>
       <c r="B163" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C163" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="D163" t="s">
         <v>36</v>
@@ -17197,14 +17197,14 @@
         <v>101</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I163" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="J163"/>
       <c r="K163">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="L163">
         <v>5067381</v>
@@ -17240,7 +17240,7 @@
         <v>0</v>
       </c>
       <c r="W163">
-        <v>0</v>
+        <v>50000.0</v>
       </c>
       <c r="X163">
         <v>0</v>
@@ -17252,7 +17252,7 @@
         <v>0</v>
       </c>
       <c r="AA163">
-        <v>4814012</v>
+        <v>4764012</v>
       </c>
       <c r="AB163"/>
       <c r="AC163" t="s">
@@ -17261,7 +17261,7 @@
       <c r="AD163"/>
       <c r="AE163"/>
       <c r="AF163" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="164" spans="1:32">
@@ -17269,10 +17269,10 @@
         <v>157</v>
       </c>
       <c r="B164" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C164" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="D164" t="s">
         <v>36</v>
@@ -17284,13 +17284,13 @@
         <v>38</v>
       </c>
       <c r="G164" t="s">
-        <v>101</v>
+        <v>39</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="J164"/>
       <c r="K164">
@@ -17324,13 +17324,13 @@
         <v>5282238</v>
       </c>
       <c r="U164">
-        <v>0</v>
+        <v>218819</v>
       </c>
       <c r="V164">
         <v>0</v>
       </c>
       <c r="W164">
-        <v>50000.0</v>
+        <v>0</v>
       </c>
       <c r="X164">
         <v>0</v>
@@ -17339,10 +17339,10 @@
         <v>0</v>
       </c>
       <c r="Z164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA164">
-        <v>4764012</v>
+        <v>4595192</v>
       </c>
       <c r="AB164"/>
       <c r="AC164" t="s">
@@ -17351,7 +17351,7 @@
       <c r="AD164"/>
       <c r="AE164"/>
       <c r="AF164" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="165" spans="1:32">
@@ -17359,10 +17359,10 @@
         <v>158</v>
       </c>
       <c r="B165" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C165" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="D165" t="s">
         <v>36</v>
@@ -17374,17 +17374,17 @@
         <v>38</v>
       </c>
       <c r="G165" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H165">
         <v>0</v>
       </c>
       <c r="I165" t="s">
-        <v>656</v>
+        <v>169</v>
       </c>
       <c r="J165"/>
       <c r="K165">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="L165">
         <v>5067381</v>
@@ -17414,7 +17414,7 @@
         <v>5282238</v>
       </c>
       <c r="U165">
-        <v>218819</v>
+        <v>481402</v>
       </c>
       <c r="V165">
         <v>0</v>
@@ -17423,16 +17423,16 @@
         <v>0</v>
       </c>
       <c r="X165">
-        <v>0</v>
+        <v>450000</v>
       </c>
       <c r="Y165">
         <v>0</v>
       </c>
       <c r="Z165">
-        <v>1</v>
+        <v>450002</v>
       </c>
       <c r="AA165">
-        <v>4595192</v>
+        <v>3882608</v>
       </c>
       <c r="AB165"/>
       <c r="AC165" t="s">
@@ -17470,7 +17470,7 @@
         <v>0</v>
       </c>
       <c r="I166" t="s">
-        <v>169</v>
+        <v>107</v>
       </c>
       <c r="J166"/>
       <c r="K166">
@@ -17504,25 +17504,25 @@
         <v>5282238</v>
       </c>
       <c r="U166">
-        <v>481402</v>
+        <v>240701</v>
       </c>
       <c r="V166">
         <v>0</v>
       </c>
       <c r="W166">
-        <v>0</v>
+        <v>50000.0</v>
       </c>
       <c r="X166">
-        <v>450000</v>
+        <v>0</v>
       </c>
       <c r="Y166">
         <v>0</v>
       </c>
       <c r="Z166">
-        <v>450002</v>
+        <v>1</v>
       </c>
       <c r="AA166">
-        <v>3882608</v>
+        <v>4523310</v>
       </c>
       <c r="AB166"/>
       <c r="AC166" t="s">
@@ -17560,11 +17560,11 @@
         <v>0</v>
       </c>
       <c r="I167" t="s">
-        <v>107</v>
+        <v>269</v>
       </c>
       <c r="J167"/>
       <c r="K167">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L167">
         <v>5067381</v>
@@ -17650,7 +17650,7 @@
         <v>0</v>
       </c>
       <c r="I168" t="s">
-        <v>269</v>
+        <v>666</v>
       </c>
       <c r="J168"/>
       <c r="K168">
@@ -17684,13 +17684,13 @@
         <v>5282238</v>
       </c>
       <c r="U168">
-        <v>240701</v>
+        <v>0</v>
       </c>
       <c r="V168">
         <v>0</v>
       </c>
       <c r="W168">
-        <v>50000.0</v>
+        <v>0</v>
       </c>
       <c r="X168">
         <v>0</v>
@@ -17699,10 +17699,10 @@
         <v>0</v>
       </c>
       <c r="Z168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA168">
-        <v>4523310</v>
+        <v>4814012</v>
       </c>
       <c r="AB168"/>
       <c r="AC168" t="s">
@@ -17711,7 +17711,7 @@
       <c r="AD168"/>
       <c r="AE168"/>
       <c r="AF168" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="169" spans="1:32">
@@ -17719,35 +17719,35 @@
         <v>162</v>
       </c>
       <c r="B169" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C169" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="D169" t="s">
-        <v>36</v>
+        <v>116</v>
       </c>
       <c r="E169" t="s">
-        <v>189</v>
+        <v>605</v>
       </c>
       <c r="F169" t="s">
         <v>38</v>
       </c>
       <c r="G169" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H169">
         <v>0</v>
       </c>
       <c r="I169" t="s">
-        <v>669</v>
+        <v>588</v>
       </c>
       <c r="J169"/>
       <c r="K169">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L169">
-        <v>5067381</v>
+        <v>0</v>
       </c>
       <c r="M169">
         <v>0</v>
@@ -17759,7 +17759,7 @@
         <v>0</v>
       </c>
       <c r="P169">
-        <v>214857</v>
+        <v>0</v>
       </c>
       <c r="Q169">
         <v>0</v>
@@ -17771,7 +17771,7 @@
         <v>0</v>
       </c>
       <c r="T169">
-        <v>5282238</v>
+        <v>0</v>
       </c>
       <c r="U169">
         <v>0</v>
@@ -17789,10 +17789,10 @@
         <v>0</v>
       </c>
       <c r="Z169">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AA169">
-        <v>4814012</v>
+        <v>-10</v>
       </c>
       <c r="AB169"/>
       <c r="AC169" t="s">
@@ -17815,10 +17815,10 @@
         <v>672</v>
       </c>
       <c r="D170" t="s">
-        <v>116</v>
+        <v>36</v>
       </c>
       <c r="E170" t="s">
-        <v>608</v>
+        <v>189</v>
       </c>
       <c r="F170" t="s">
         <v>38</v>
@@ -17830,14 +17830,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="s">
-        <v>591</v>
+        <v>256</v>
       </c>
       <c r="J170"/>
       <c r="K170">
         <v>3</v>
       </c>
       <c r="L170">
-        <v>0</v>
+        <v>5067381</v>
       </c>
       <c r="M170">
         <v>0</v>
@@ -17849,7 +17849,7 @@
         <v>0</v>
       </c>
       <c r="P170">
-        <v>0</v>
+        <v>214857</v>
       </c>
       <c r="Q170">
         <v>0</v>
@@ -17861,10 +17861,10 @@
         <v>0</v>
       </c>
       <c r="T170">
-        <v>0</v>
+        <v>5282238</v>
       </c>
       <c r="U170">
-        <v>0</v>
+        <v>240701</v>
       </c>
       <c r="V170">
         <v>0</v>
@@ -17879,10 +17879,10 @@
         <v>0</v>
       </c>
       <c r="Z170">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AA170">
-        <v>-10</v>
+        <v>4573310</v>
       </c>
       <c r="AB170"/>
       <c r="AC170" t="s">
@@ -17920,14 +17920,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="s">
-        <v>256</v>
+        <v>676</v>
       </c>
       <c r="J171"/>
       <c r="K171">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L171">
-        <v>5067381</v>
+        <v>0</v>
       </c>
       <c r="M171">
         <v>0</v>
@@ -17939,7 +17939,7 @@
         <v>0</v>
       </c>
       <c r="P171">
-        <v>214857</v>
+        <v>0</v>
       </c>
       <c r="Q171">
         <v>0</v>
@@ -17951,10 +17951,10 @@
         <v>0</v>
       </c>
       <c r="T171">
-        <v>5282238</v>
+        <v>0</v>
       </c>
       <c r="U171">
-        <v>240701</v>
+        <v>0</v>
       </c>
       <c r="V171">
         <v>0</v>
@@ -17969,10 +17969,10 @@
         <v>0</v>
       </c>
       <c r="Z171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA171">
-        <v>4573310</v>
+        <v>0</v>
       </c>
       <c r="AB171"/>
       <c r="AC171" t="s">
@@ -17981,7 +17981,7 @@
       <c r="AD171"/>
       <c r="AE171"/>
       <c r="AF171" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="172" spans="1:32">
@@ -17989,38 +17989,38 @@
         <v>165</v>
       </c>
       <c r="B172" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C172" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="D172" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="E172" t="s">
-        <v>189</v>
+        <v>680</v>
       </c>
       <c r="F172" t="s">
         <v>38</v>
       </c>
       <c r="G172" t="s">
-        <v>39</v>
+        <v>101</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="J172"/>
       <c r="K172">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L172">
-        <v>0</v>
+        <v>5067381</v>
       </c>
       <c r="M172">
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="N172">
         <v>0</v>
@@ -18029,7 +18029,7 @@
         <v>0</v>
       </c>
       <c r="P172">
-        <v>0</v>
+        <v>214857</v>
       </c>
       <c r="Q172">
         <v>0</v>
@@ -18038,10 +18038,10 @@
         <v>0</v>
       </c>
       <c r="S172">
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="T172">
-        <v>0</v>
+        <v>5882238</v>
       </c>
       <c r="U172">
         <v>0</v>
@@ -18062,7 +18062,7 @@
         <v>0</v>
       </c>
       <c r="AA172">
-        <v>0</v>
+        <v>4706600</v>
       </c>
       <c r="AB172"/>
       <c r="AC172" t="s">
@@ -18071,7 +18071,7 @@
       <c r="AD172"/>
       <c r="AE172"/>
       <c r="AF172" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
     </row>
     <row r="173" spans="1:32">
@@ -18079,28 +18079,28 @@
         <v>166</v>
       </c>
       <c r="B173" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="C173" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="D173" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="E173" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F173" t="s">
         <v>38</v>
       </c>
       <c r="G173" t="s">
-        <v>101</v>
+        <v>39</v>
       </c>
       <c r="H173">
         <v>2</v>
       </c>
       <c r="I173" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="J173"/>
       <c r="K173">
@@ -18110,7 +18110,7 @@
         <v>5067381</v>
       </c>
       <c r="M173">
-        <v>300000</v>
+        <v>0</v>
       </c>
       <c r="N173">
         <v>0</v>
@@ -18128,13 +18128,13 @@
         <v>0</v>
       </c>
       <c r="S173">
-        <v>300000</v>
+        <v>0</v>
       </c>
       <c r="T173">
-        <v>5882238</v>
+        <v>5282238</v>
       </c>
       <c r="U173">
-        <v>0</v>
+        <v>-1216170</v>
       </c>
       <c r="V173">
         <v>0</v>
@@ -18152,7 +18152,7 @@
         <v>0</v>
       </c>
       <c r="AA173">
-        <v>4706600</v>
+        <v>5594389</v>
       </c>
       <c r="AB173"/>
       <c r="AC173" t="s">
@@ -18161,7 +18161,7 @@
       <c r="AD173"/>
       <c r="AE173"/>
       <c r="AF173" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="174" spans="1:32">
@@ -18169,16 +18169,16 @@
         <v>167</v>
       </c>
       <c r="B174" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C174" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="D174" t="s">
         <v>36</v>
       </c>
       <c r="E174" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F174" t="s">
         <v>38</v>
@@ -18187,10 +18187,10 @@
         <v>39</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="J174"/>
       <c r="K174">
@@ -18224,7 +18224,7 @@
         <v>5282238</v>
       </c>
       <c r="U174">
-        <v>-1216170</v>
+        <v>-212830</v>
       </c>
       <c r="V174">
         <v>0</v>
@@ -18242,7 +18242,7 @@
         <v>0</v>
       </c>
       <c r="AA174">
-        <v>5594389</v>
+        <v>4669930</v>
       </c>
       <c r="AB174"/>
       <c r="AC174" t="s">
@@ -18251,7 +18251,7 @@
       <c r="AD174"/>
       <c r="AE174"/>
       <c r="AF174" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="175" spans="1:32">
@@ -18259,16 +18259,16 @@
         <v>168</v>
       </c>
       <c r="B175" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="C175" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="D175" t="s">
         <v>36</v>
       </c>
       <c r="E175" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F175" t="s">
         <v>38</v>
@@ -18280,11 +18280,11 @@
         <v>0</v>
       </c>
       <c r="I175" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="J175"/>
       <c r="K175">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L175">
         <v>5067381</v>
@@ -18314,7 +18314,7 @@
         <v>5282238</v>
       </c>
       <c r="U175">
-        <v>-212830</v>
+        <v>-224032</v>
       </c>
       <c r="V175">
         <v>0</v>
@@ -18332,7 +18332,7 @@
         <v>0</v>
       </c>
       <c r="AA175">
-        <v>4669930</v>
+        <v>4391240</v>
       </c>
       <c r="AB175"/>
       <c r="AC175" t="s">
@@ -18341,7 +18341,7 @@
       <c r="AD175"/>
       <c r="AE175"/>
       <c r="AF175" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="176" spans="1:32">
@@ -18349,32 +18349,32 @@
         <v>169</v>
       </c>
       <c r="B176" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C176" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="D176" t="s">
         <v>36</v>
       </c>
       <c r="E176" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F176" t="s">
         <v>38</v>
       </c>
       <c r="G176" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="H176">
         <v>0</v>
       </c>
       <c r="I176" t="s">
-        <v>696</v>
+        <v>641</v>
       </c>
       <c r="J176"/>
       <c r="K176">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L176">
         <v>5067381</v>
@@ -18404,7 +18404,7 @@
         <v>5282238</v>
       </c>
       <c r="U176">
-        <v>-224032</v>
+        <v>-472956</v>
       </c>
       <c r="V176">
         <v>0</v>
@@ -18422,7 +18422,7 @@
         <v>0</v>
       </c>
       <c r="AA176">
-        <v>4391240</v>
+        <v>5029556</v>
       </c>
       <c r="AB176"/>
       <c r="AC176" t="s">
@@ -18448,23 +18448,23 @@
         <v>36</v>
       </c>
       <c r="E177" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F177" t="s">
         <v>38</v>
       </c>
       <c r="G177" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="H177">
         <v>0</v>
       </c>
       <c r="I177" t="s">
-        <v>644</v>
+        <v>700</v>
       </c>
       <c r="J177"/>
       <c r="K177">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L177">
         <v>5067381</v>
@@ -18494,7 +18494,7 @@
         <v>5282238</v>
       </c>
       <c r="U177">
-        <v>-472956</v>
+        <v>-425660</v>
       </c>
       <c r="V177">
         <v>0</v>
@@ -18512,7 +18512,7 @@
         <v>0</v>
       </c>
       <c r="AA177">
-        <v>5029556</v>
+        <v>4585811</v>
       </c>
       <c r="AB177"/>
       <c r="AC177" t="s">
@@ -18521,7 +18521,7 @@
       <c r="AD177"/>
       <c r="AE177"/>
       <c r="AF177" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="178" spans="1:32">
@@ -18529,16 +18529,16 @@
         <v>171</v>
       </c>
       <c r="B178" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C178" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="D178" t="s">
         <v>36</v>
       </c>
       <c r="E178" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F178" t="s">
         <v>38</v>
@@ -18547,10 +18547,10 @@
         <v>39</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I178" t="s">
-        <v>703</v>
+        <v>249</v>
       </c>
       <c r="J178"/>
       <c r="K178">
@@ -18593,16 +18593,16 @@
         <v>0</v>
       </c>
       <c r="X178">
-        <v>0</v>
+        <v>450000</v>
       </c>
       <c r="Y178">
         <v>0</v>
       </c>
       <c r="Z178">
-        <v>0</v>
+        <v>450000</v>
       </c>
       <c r="AA178">
-        <v>4585811</v>
+        <v>4135811</v>
       </c>
       <c r="AB178"/>
       <c r="AC178" t="s">
@@ -18628,19 +18628,19 @@
         <v>36</v>
       </c>
       <c r="E179" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F179" t="s">
         <v>38</v>
       </c>
       <c r="G179" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H179">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I179" t="s">
-        <v>249</v>
+        <v>381</v>
       </c>
       <c r="J179"/>
       <c r="K179">
@@ -18674,7 +18674,7 @@
         <v>5282238</v>
       </c>
       <c r="U179">
-        <v>-425660</v>
+        <v>0</v>
       </c>
       <c r="V179">
         <v>0</v>
@@ -18683,16 +18683,16 @@
         <v>0</v>
       </c>
       <c r="X179">
-        <v>450000</v>
+        <v>0</v>
       </c>
       <c r="Y179">
         <v>0</v>
       </c>
       <c r="Z179">
-        <v>450000</v>
+        <v>0</v>
       </c>
       <c r="AA179">
-        <v>4135811</v>
+        <v>3991564</v>
       </c>
       <c r="AB179"/>
       <c r="AC179" t="s">
@@ -18718,23 +18718,23 @@
         <v>36</v>
       </c>
       <c r="E180" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F180" t="s">
         <v>38</v>
       </c>
       <c r="G180" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H180">
         <v>0</v>
       </c>
       <c r="I180" t="s">
-        <v>381</v>
+        <v>173</v>
       </c>
       <c r="J180"/>
       <c r="K180">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L180">
         <v>5067381</v>
@@ -18808,7 +18808,7 @@
         <v>36</v>
       </c>
       <c r="E181" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F181" t="s">
         <v>38</v>
@@ -18820,11 +18820,11 @@
         <v>0</v>
       </c>
       <c r="I181" t="s">
-        <v>173</v>
+        <v>409</v>
       </c>
       <c r="J181"/>
       <c r="K181">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L181">
         <v>5067381</v>
@@ -18854,7 +18854,7 @@
         <v>5282238</v>
       </c>
       <c r="U181">
-        <v>0</v>
+        <v>-851320</v>
       </c>
       <c r="V181">
         <v>0</v>
@@ -18872,7 +18872,7 @@
         <v>0</v>
       </c>
       <c r="AA181">
-        <v>3991564</v>
+        <v>5081809</v>
       </c>
       <c r="AB181"/>
       <c r="AC181" t="s">
@@ -18898,7 +18898,7 @@
         <v>36</v>
       </c>
       <c r="E182" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F182" t="s">
         <v>38</v>
@@ -18910,11 +18910,11 @@
         <v>0</v>
       </c>
       <c r="I182" t="s">
-        <v>409</v>
+        <v>256</v>
       </c>
       <c r="J182"/>
       <c r="K182">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L182">
         <v>5067381</v>
@@ -18944,7 +18944,7 @@
         <v>5282238</v>
       </c>
       <c r="U182">
-        <v>-851320</v>
+        <v>-212830</v>
       </c>
       <c r="V182">
         <v>0</v>
@@ -18962,7 +18962,7 @@
         <v>0</v>
       </c>
       <c r="AA182">
-        <v>5081809</v>
+        <v>4290502</v>
       </c>
       <c r="AB182"/>
       <c r="AC182" t="s">
@@ -18988,23 +18988,23 @@
         <v>36</v>
       </c>
       <c r="E183" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F183" t="s">
         <v>38</v>
       </c>
       <c r="G183" t="s">
-        <v>39</v>
+        <v>101</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="s">
-        <v>256</v>
+        <v>719</v>
       </c>
       <c r="J183"/>
       <c r="K183">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L183">
         <v>5067381</v>
@@ -19034,7 +19034,7 @@
         <v>5282238</v>
       </c>
       <c r="U183">
-        <v>-212830</v>
+        <v>-405390</v>
       </c>
       <c r="V183">
         <v>0</v>
@@ -19052,7 +19052,7 @@
         <v>0</v>
       </c>
       <c r="AA183">
-        <v>4290502</v>
+        <v>4961990</v>
       </c>
       <c r="AB183"/>
       <c r="AC183" t="s">
@@ -19061,7 +19061,7 @@
       <c r="AD183"/>
       <c r="AE183"/>
       <c r="AF183" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="184" spans="1:32">
@@ -19069,38 +19069,38 @@
         <v>177</v>
       </c>
       <c r="B184" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C184" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="D184" t="s">
-        <v>36</v>
+        <v>283</v>
       </c>
       <c r="E184" t="s">
-        <v>683</v>
+        <v>278</v>
       </c>
       <c r="F184" t="s">
         <v>38</v>
       </c>
       <c r="G184" t="s">
-        <v>101</v>
+        <v>39</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="J184"/>
       <c r="K184">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L184">
         <v>5067381</v>
       </c>
       <c r="M184">
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="N184">
         <v>0</v>
@@ -19118,13 +19118,13 @@
         <v>0</v>
       </c>
       <c r="S184">
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="T184">
-        <v>5282238</v>
+        <v>5582238</v>
       </c>
       <c r="U184">
-        <v>-405390</v>
+        <v>-237154</v>
       </c>
       <c r="V184">
         <v>0</v>
@@ -19142,7 +19142,7 @@
         <v>0</v>
       </c>
       <c r="AA184">
-        <v>4961990</v>
+        <v>5568227</v>
       </c>
       <c r="AB184"/>
       <c r="AC184" t="s">
@@ -19151,7 +19151,7 @@
       <c r="AD184"/>
       <c r="AE184"/>
       <c r="AF184" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="185" spans="1:32">
@@ -19159,13 +19159,13 @@
         <v>178</v>
       </c>
       <c r="B185" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="C185" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="D185" t="s">
-        <v>283</v>
+        <v>575</v>
       </c>
       <c r="E185" t="s">
         <v>278</v>
@@ -19174,23 +19174,23 @@
         <v>38</v>
       </c>
       <c r="G185" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H185">
         <v>0</v>
       </c>
       <c r="I185" t="s">
-        <v>726</v>
+        <v>288</v>
       </c>
       <c r="J185"/>
       <c r="K185">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L185">
-        <v>5067381</v>
+        <v>5517381</v>
       </c>
       <c r="M185">
-        <v>150000</v>
+        <v>0</v>
       </c>
       <c r="N185">
         <v>0</v>
@@ -19199,7 +19199,7 @@
         <v>0</v>
       </c>
       <c r="P185">
-        <v>214857</v>
+        <v>233937</v>
       </c>
       <c r="Q185">
         <v>0</v>
@@ -19208,13 +19208,13 @@
         <v>0</v>
       </c>
       <c r="S185">
-        <v>150000</v>
+        <v>0</v>
       </c>
       <c r="T185">
-        <v>5582238</v>
+        <v>5751318</v>
       </c>
       <c r="U185">
-        <v>-237154</v>
+        <v>-501580</v>
       </c>
       <c r="V185">
         <v>0</v>
@@ -19232,7 +19232,7 @@
         <v>0</v>
       </c>
       <c r="AA185">
-        <v>5568227</v>
+        <v>6174741</v>
       </c>
       <c r="AB185"/>
       <c r="AC185" t="s">
@@ -19255,7 +19255,7 @@
         <v>729</v>
       </c>
       <c r="D186" t="s">
-        <v>578</v>
+        <v>277</v>
       </c>
       <c r="E186" t="s">
         <v>278</v>
@@ -19264,23 +19264,23 @@
         <v>38</v>
       </c>
       <c r="G186" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H186">
         <v>0</v>
       </c>
       <c r="I186" t="s">
-        <v>288</v>
+        <v>730</v>
       </c>
       <c r="J186"/>
       <c r="K186">
         <v>12</v>
       </c>
       <c r="L186">
-        <v>5517381</v>
+        <v>5067381</v>
       </c>
       <c r="M186">
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="N186">
         <v>0</v>
@@ -19289,7 +19289,7 @@
         <v>0</v>
       </c>
       <c r="P186">
-        <v>233937</v>
+        <v>214857</v>
       </c>
       <c r="Q186">
         <v>0</v>
@@ -19301,10 +19301,10 @@
         <v>0</v>
       </c>
       <c r="T186">
-        <v>5751318</v>
+        <v>5582238</v>
       </c>
       <c r="U186">
-        <v>-501580</v>
+        <v>0</v>
       </c>
       <c r="V186">
         <v>0</v>
@@ -19322,7 +19322,7 @@
         <v>0</v>
       </c>
       <c r="AA186">
-        <v>6174741</v>
+        <v>78000</v>
       </c>
       <c r="AB186"/>
       <c r="AC186" t="s">
@@ -19331,7 +19331,7 @@
       <c r="AD186"/>
       <c r="AE186"/>
       <c r="AF186" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
     </row>
     <row r="187" spans="1:32">
@@ -19339,10 +19339,10 @@
         <v>180</v>
       </c>
       <c r="B187" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="C187" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="D187" t="s">
         <v>277</v>
@@ -19357,10 +19357,10 @@
         <v>39</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I187" t="s">
-        <v>733</v>
+        <v>288</v>
       </c>
       <c r="J187"/>
       <c r="K187">
@@ -19388,13 +19388,13 @@
         <v>0</v>
       </c>
       <c r="S187">
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="T187">
-        <v>5582238</v>
+        <v>5882238</v>
       </c>
       <c r="U187">
-        <v>0</v>
+        <v>447282</v>
       </c>
       <c r="V187">
         <v>0</v>
@@ -19409,10 +19409,10 @@
         <v>0</v>
       </c>
       <c r="Z187">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA187">
-        <v>78000</v>
+        <v>5076097</v>
       </c>
       <c r="AB187"/>
       <c r="AC187" t="s">
@@ -19484,7 +19484,7 @@
         <v>5882238</v>
       </c>
       <c r="U188">
-        <v>447282</v>
+        <v>0</v>
       </c>
       <c r="V188">
         <v>0</v>
@@ -19499,10 +19499,10 @@
         <v>0</v>
       </c>
       <c r="Z188">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA188">
-        <v>5076097</v>
+        <v>5494444</v>
       </c>
       <c r="AB188"/>
       <c r="AC188" t="s">
@@ -19537,7 +19537,7 @@
         <v>39</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I189" t="s">
         <v>288</v>
@@ -19574,7 +19574,7 @@
         <v>5882238</v>
       </c>
       <c r="U189">
-        <v>0</v>
+        <v>255590</v>
       </c>
       <c r="V189">
         <v>0</v>
@@ -19589,10 +19589,10 @@
         <v>0</v>
       </c>
       <c r="Z189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA189">
-        <v>5494444</v>
+        <v>5253961</v>
       </c>
       <c r="AB189"/>
       <c r="AC189" t="s">
@@ -19615,7 +19615,7 @@
         <v>742</v>
       </c>
       <c r="D190" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="E190" t="s">
         <v>278</v>
@@ -19640,7 +19640,7 @@
         <v>5067381</v>
       </c>
       <c r="M190">
-        <v>300000</v>
+        <v>200000</v>
       </c>
       <c r="N190">
         <v>0</v>
@@ -19658,13 +19658,13 @@
         <v>0</v>
       </c>
       <c r="S190">
-        <v>300000</v>
+        <v>200000</v>
       </c>
       <c r="T190">
-        <v>5882238</v>
+        <v>5682238</v>
       </c>
       <c r="U190">
-        <v>255590</v>
+        <v>239426</v>
       </c>
       <c r="V190">
         <v>0</v>
@@ -19682,7 +19682,7 @@
         <v>1</v>
       </c>
       <c r="AA190">
-        <v>5253961</v>
+        <v>5248139</v>
       </c>
       <c r="AB190"/>
       <c r="AC190" t="s">
@@ -19705,7 +19705,7 @@
         <v>745</v>
       </c>
       <c r="D191" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="E191" t="s">
         <v>278</v>
@@ -19730,7 +19730,7 @@
         <v>5067381</v>
       </c>
       <c r="M191">
-        <v>200000</v>
+        <v>150000</v>
       </c>
       <c r="N191">
         <v>0</v>
@@ -19748,13 +19748,13 @@
         <v>0</v>
       </c>
       <c r="S191">
-        <v>200000</v>
+        <v>150000</v>
       </c>
       <c r="T191">
-        <v>5682238</v>
+        <v>5582238</v>
       </c>
       <c r="U191">
-        <v>239426</v>
+        <v>0</v>
       </c>
       <c r="V191">
         <v>0</v>
@@ -19769,10 +19769,10 @@
         <v>0</v>
       </c>
       <c r="Z191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA191">
-        <v>5248139</v>
+        <v>5359288</v>
       </c>
       <c r="AB191"/>
       <c r="AC191" t="s">
@@ -19795,7 +19795,7 @@
         <v>748</v>
       </c>
       <c r="D192" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="E192" t="s">
         <v>278</v>
@@ -19807,20 +19807,20 @@
         <v>39</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I192" t="s">
-        <v>288</v>
+        <v>749</v>
       </c>
       <c r="J192"/>
       <c r="K192">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="L192">
         <v>5067381</v>
       </c>
       <c r="M192">
-        <v>150000</v>
+        <v>300000</v>
       </c>
       <c r="N192">
         <v>0</v>
@@ -19838,19 +19838,19 @@
         <v>0</v>
       </c>
       <c r="S192">
-        <v>150000</v>
+        <v>300000</v>
       </c>
       <c r="T192">
-        <v>5582238</v>
+        <v>5882238</v>
       </c>
       <c r="U192">
-        <v>0</v>
+        <v>-255590</v>
       </c>
       <c r="V192">
         <v>0</v>
       </c>
       <c r="W192">
-        <v>0</v>
+        <v>50000.0</v>
       </c>
       <c r="X192">
         <v>0</v>
@@ -19862,7 +19862,7 @@
         <v>0</v>
       </c>
       <c r="AA192">
-        <v>5359288</v>
+        <v>5593331</v>
       </c>
       <c r="AB192"/>
       <c r="AC192" t="s">
@@ -19871,7 +19871,7 @@
       <c r="AD192"/>
       <c r="AE192"/>
       <c r="AF192" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="193" spans="1:32">
@@ -19879,13 +19879,13 @@
         <v>186</v>
       </c>
       <c r="B193" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="C193" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="D193" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="E193" t="s">
         <v>278</v>
@@ -19900,7 +19900,7 @@
         <v>1</v>
       </c>
       <c r="I193" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="J193"/>
       <c r="K193">
@@ -19910,7 +19910,7 @@
         <v>5067381</v>
       </c>
       <c r="M193">
-        <v>300000</v>
+        <v>200000</v>
       </c>
       <c r="N193">
         <v>0</v>
@@ -19928,13 +19928,13 @@
         <v>0</v>
       </c>
       <c r="S193">
-        <v>300000</v>
+        <v>200000</v>
       </c>
       <c r="T193">
-        <v>5882238</v>
+        <v>5682238</v>
       </c>
       <c r="U193">
-        <v>-255590</v>
+        <v>-229017</v>
       </c>
       <c r="V193">
         <v>0</v>
@@ -19952,7 +19952,7 @@
         <v>0</v>
       </c>
       <c r="AA193">
-        <v>5593331</v>
+        <v>5712855</v>
       </c>
       <c r="AB193"/>
       <c r="AC193" t="s">
@@ -19961,7 +19961,7 @@
       <c r="AD193"/>
       <c r="AE193"/>
       <c r="AF193" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
     <row r="194" spans="1:32">
@@ -19969,13 +19969,13 @@
         <v>187</v>
       </c>
       <c r="B194" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="C194" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="D194" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="E194" t="s">
         <v>278</v>
@@ -19987,10 +19987,10 @@
         <v>39</v>
       </c>
       <c r="H194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I194" t="s">
-        <v>756</v>
+        <v>288</v>
       </c>
       <c r="J194"/>
       <c r="K194">
@@ -20000,7 +20000,7 @@
         <v>5067381</v>
       </c>
       <c r="M194">
-        <v>200000</v>
+        <v>150000</v>
       </c>
       <c r="N194">
         <v>0</v>
@@ -20018,13 +20018,13 @@
         <v>0</v>
       </c>
       <c r="S194">
-        <v>200000</v>
+        <v>150000</v>
       </c>
       <c r="T194">
-        <v>5682238</v>
+        <v>5582238</v>
       </c>
       <c r="U194">
-        <v>-229017</v>
+        <v>-521738</v>
       </c>
       <c r="V194">
         <v>0</v>
@@ -20042,7 +20042,7 @@
         <v>0</v>
       </c>
       <c r="AA194">
-        <v>5712855</v>
+        <v>5889243</v>
       </c>
       <c r="AB194"/>
       <c r="AC194" t="s">
@@ -20065,7 +20065,7 @@
         <v>759</v>
       </c>
       <c r="D195" t="s">
-        <v>283</v>
+        <v>575</v>
       </c>
       <c r="E195" t="s">
         <v>278</v>
@@ -20087,10 +20087,10 @@
         <v>12</v>
       </c>
       <c r="L195">
-        <v>5067381</v>
+        <v>5517381</v>
       </c>
       <c r="M195">
-        <v>150000</v>
+        <v>0</v>
       </c>
       <c r="N195">
         <v>0</v>
@@ -20099,7 +20099,7 @@
         <v>0</v>
       </c>
       <c r="P195">
-        <v>214857</v>
+        <v>233937</v>
       </c>
       <c r="Q195">
         <v>0</v>
@@ -20108,19 +20108,19 @@
         <v>0</v>
       </c>
       <c r="S195">
-        <v>150000</v>
+        <v>0</v>
       </c>
       <c r="T195">
-        <v>5582238</v>
+        <v>5751318</v>
       </c>
       <c r="U195">
-        <v>-521738</v>
+        <v>3940980</v>
       </c>
       <c r="V195">
         <v>0</v>
       </c>
       <c r="W195">
-        <v>50000.0</v>
+        <v>0</v>
       </c>
       <c r="X195">
         <v>0</v>
@@ -20129,10 +20129,10 @@
         <v>0</v>
       </c>
       <c r="Z195">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AA195">
-        <v>5889243</v>
+        <v>1992386</v>
       </c>
       <c r="AB195"/>
       <c r="AC195" t="s">
@@ -20155,7 +20155,7 @@
         <v>762</v>
       </c>
       <c r="D196" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="E196" t="s">
         <v>278</v>
@@ -20204,7 +20204,7 @@
         <v>5751318</v>
       </c>
       <c r="U196">
-        <v>3940980</v>
+        <v>2627320</v>
       </c>
       <c r="V196">
         <v>0</v>
@@ -20219,10 +20219,10 @@
         <v>0</v>
       </c>
       <c r="Z196">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AA196">
-        <v>1992386</v>
+        <v>2955051</v>
       </c>
       <c r="AB196"/>
       <c r="AC196" t="s">
@@ -20245,7 +20245,7 @@
         <v>765</v>
       </c>
       <c r="D197" t="s">
-        <v>578</v>
+        <v>277</v>
       </c>
       <c r="E197" t="s">
         <v>278</v>
@@ -20254,7 +20254,7 @@
         <v>38</v>
       </c>
       <c r="G197" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="H197">
         <v>0</v>
@@ -20267,10 +20267,10 @@
         <v>12</v>
       </c>
       <c r="L197">
-        <v>5517381</v>
+        <v>5067381</v>
       </c>
       <c r="M197">
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="N197">
         <v>0</v>
@@ -20279,7 +20279,7 @@
         <v>0</v>
       </c>
       <c r="P197">
-        <v>233937</v>
+        <v>214857</v>
       </c>
       <c r="Q197">
         <v>0</v>
@@ -20288,13 +20288,13 @@
         <v>0</v>
       </c>
       <c r="S197">
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="T197">
-        <v>5751318</v>
+        <v>5882238</v>
       </c>
       <c r="U197">
-        <v>2627320</v>
+        <v>-536738</v>
       </c>
       <c r="V197">
         <v>0</v>
@@ -20309,10 +20309,10 @@
         <v>0</v>
       </c>
       <c r="Z197">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AA197">
-        <v>2955051</v>
+        <v>5982119</v>
       </c>
       <c r="AB197"/>
       <c r="AC197" t="s">
@@ -20344,10 +20344,10 @@
         <v>38</v>
       </c>
       <c r="G198" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I198" t="s">
         <v>288</v>
@@ -20384,7 +20384,7 @@
         <v>5882238</v>
       </c>
       <c r="U198">
-        <v>-536738</v>
+        <v>-243972</v>
       </c>
       <c r="V198">
         <v>0</v>
@@ -20402,7 +20402,7 @@
         <v>0</v>
       </c>
       <c r="AA198">
-        <v>5982119</v>
+        <v>5799533</v>
       </c>
       <c r="AB198"/>
       <c r="AC198" t="s">
@@ -20437,20 +20437,20 @@
         <v>39</v>
       </c>
       <c r="H199">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I199" t="s">
-        <v>288</v>
+        <v>442</v>
       </c>
       <c r="J199"/>
       <c r="K199">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="L199">
-        <v>5067381</v>
+        <v>0</v>
       </c>
       <c r="M199">
-        <v>300000</v>
+        <v>0</v>
       </c>
       <c r="N199">
         <v>0</v>
@@ -20459,7 +20459,7 @@
         <v>0</v>
       </c>
       <c r="P199">
-        <v>214857</v>
+        <v>0</v>
       </c>
       <c r="Q199">
         <v>0</v>
@@ -20468,13 +20468,13 @@
         <v>0</v>
       </c>
       <c r="S199">
-        <v>300000</v>
+        <v>0</v>
       </c>
       <c r="T199">
-        <v>5882238</v>
+        <v>0</v>
       </c>
       <c r="U199">
-        <v>-243972</v>
+        <v>0</v>
       </c>
       <c r="V199">
         <v>0</v>
@@ -20492,7 +20492,7 @@
         <v>0</v>
       </c>
       <c r="AA199">
-        <v>5799533</v>
+        <v>117000</v>
       </c>
       <c r="AB199"/>
       <c r="AC199" t="s">
@@ -20515,7 +20515,7 @@
         <v>774</v>
       </c>
       <c r="D200" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="E200" t="s">
         <v>278</v>
@@ -20524,17 +20524,17 @@
         <v>38</v>
       </c>
       <c r="G200" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="H200">
         <v>0</v>
       </c>
       <c r="I200" t="s">
-        <v>442</v>
+        <v>288</v>
       </c>
       <c r="J200"/>
       <c r="K200">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="L200">
         <v>0</v>
@@ -20582,7 +20582,7 @@
         <v>0</v>
       </c>
       <c r="AA200">
-        <v>117000</v>
+        <v>156000</v>
       </c>
       <c r="AB200"/>
       <c r="AC200" t="s">
@@ -20605,7 +20605,7 @@
         <v>777</v>
       </c>
       <c r="D201" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="E201" t="s">
         <v>278</v>
@@ -20614,7 +20614,7 @@
         <v>38</v>
       </c>
       <c r="G201" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="H201">
         <v>0</v>
@@ -20627,10 +20627,10 @@
         <v>12</v>
       </c>
       <c r="L201">
-        <v>0</v>
+        <v>5067381</v>
       </c>
       <c r="M201">
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="N201">
         <v>0</v>
@@ -20639,7 +20639,7 @@
         <v>0</v>
       </c>
       <c r="P201">
-        <v>0</v>
+        <v>214857</v>
       </c>
       <c r="Q201">
         <v>0</v>
@@ -20648,13 +20648,13 @@
         <v>0</v>
       </c>
       <c r="S201">
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="T201">
-        <v>0</v>
+        <v>5582238</v>
       </c>
       <c r="U201">
-        <v>0</v>
+        <v>-237154</v>
       </c>
       <c r="V201">
         <v>0</v>
@@ -20672,7 +20672,7 @@
         <v>0</v>
       </c>
       <c r="AA201">
-        <v>156000</v>
+        <v>5503552</v>
       </c>
       <c r="AB201"/>
       <c r="AC201" t="s">
@@ -20704,13 +20704,13 @@
         <v>38</v>
       </c>
       <c r="G202" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="H202">
         <v>0</v>
       </c>
       <c r="I202" t="s">
-        <v>288</v>
+        <v>781</v>
       </c>
       <c r="J202"/>
       <c r="K202">
@@ -20744,7 +20744,7 @@
         <v>5582238</v>
       </c>
       <c r="U202">
-        <v>-237154</v>
+        <v>-496894</v>
       </c>
       <c r="V202">
         <v>0</v>
@@ -20762,7 +20762,7 @@
         <v>0</v>
       </c>
       <c r="AA202">
-        <v>5503552</v>
+        <v>5935275</v>
       </c>
       <c r="AB202"/>
       <c r="AC202" t="s">
@@ -20771,7 +20771,7 @@
       <c r="AD202"/>
       <c r="AE202"/>
       <c r="AF202" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="203" spans="1:32">
@@ -20779,13 +20779,13 @@
         <v>196</v>
       </c>
       <c r="B203" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="C203" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="D203" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="E203" t="s">
         <v>278</v>
@@ -20794,23 +20794,23 @@
         <v>38</v>
       </c>
       <c r="G203" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="H203">
         <v>0</v>
       </c>
       <c r="I203" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="J203"/>
       <c r="K203">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="L203">
         <v>5067381</v>
       </c>
       <c r="M203">
-        <v>150000</v>
+        <v>200000</v>
       </c>
       <c r="N203">
         <v>0</v>
@@ -20828,13 +20828,13 @@
         <v>0</v>
       </c>
       <c r="S203">
-        <v>150000</v>
+        <v>200000</v>
       </c>
       <c r="T203">
-        <v>5582238</v>
+        <v>5682238</v>
       </c>
       <c r="U203">
-        <v>-496894</v>
+        <v>-239426</v>
       </c>
       <c r="V203">
         <v>0</v>
@@ -20852,7 +20852,7 @@
         <v>0</v>
       </c>
       <c r="AA203">
-        <v>5935275</v>
+        <v>5734478</v>
       </c>
       <c r="AB203"/>
       <c r="AC203" t="s">
@@ -20861,7 +20861,7 @@
       <c r="AD203"/>
       <c r="AE203"/>
       <c r="AF203" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="204" spans="1:32">
@@ -20869,13 +20869,13 @@
         <v>197</v>
       </c>
       <c r="B204" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C204" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="D204" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="E204" t="s">
         <v>278</v>
@@ -20887,20 +20887,20 @@
         <v>39</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="s">
-        <v>788</v>
+        <v>288</v>
       </c>
       <c r="J204"/>
       <c r="K204">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="L204">
         <v>5067381</v>
       </c>
       <c r="M204">
-        <v>200000</v>
+        <v>300000</v>
       </c>
       <c r="N204">
         <v>0</v>
@@ -20918,13 +20918,13 @@
         <v>0</v>
       </c>
       <c r="S204">
-        <v>200000</v>
+        <v>300000</v>
       </c>
       <c r="T204">
-        <v>5682238</v>
+        <v>5882238</v>
       </c>
       <c r="U204">
-        <v>-239426</v>
+        <v>0</v>
       </c>
       <c r="V204">
         <v>0</v>
@@ -20942,7 +20942,7 @@
         <v>0</v>
       </c>
       <c r="AA204">
-        <v>5734478</v>
+        <v>5494444</v>
       </c>
       <c r="AB204"/>
       <c r="AC204" t="s">
@@ -21032,7 +21032,7 @@
         <v>0</v>
       </c>
       <c r="AA205">
-        <v>5494444</v>
+        <v>5353303</v>
       </c>
       <c r="AB205"/>
       <c r="AC205" t="s">
@@ -21055,7 +21055,7 @@
         <v>794</v>
       </c>
       <c r="D206" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="E206" t="s">
         <v>278</v>
@@ -21067,7 +21067,7 @@
         <v>39</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="s">
         <v>288</v>
@@ -21080,7 +21080,7 @@
         <v>5067381</v>
       </c>
       <c r="M206">
-        <v>300000</v>
+        <v>200000</v>
       </c>
       <c r="N206">
         <v>0</v>
@@ -21098,13 +21098,13 @@
         <v>0</v>
       </c>
       <c r="S206">
-        <v>300000</v>
+        <v>200000</v>
       </c>
       <c r="T206">
-        <v>5882238</v>
+        <v>5682238</v>
       </c>
       <c r="U206">
-        <v>0</v>
+        <v>-526738</v>
       </c>
       <c r="V206">
         <v>0</v>
@@ -21122,7 +21122,7 @@
         <v>0</v>
       </c>
       <c r="AA206">
-        <v>5353303</v>
+        <v>5890611</v>
       </c>
       <c r="AB206"/>
       <c r="AC206" t="s">
@@ -21145,7 +21145,7 @@
         <v>797</v>
       </c>
       <c r="D207" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="E207" t="s">
         <v>278</v>
@@ -21160,7 +21160,7 @@
         <v>0</v>
       </c>
       <c r="I207" t="s">
-        <v>288</v>
+        <v>530</v>
       </c>
       <c r="J207"/>
       <c r="K207">
@@ -21170,7 +21170,7 @@
         <v>5067381</v>
       </c>
       <c r="M207">
-        <v>200000</v>
+        <v>150000</v>
       </c>
       <c r="N207">
         <v>0</v>
@@ -21188,13 +21188,13 @@
         <v>0</v>
       </c>
       <c r="S207">
-        <v>200000</v>
+        <v>150000</v>
       </c>
       <c r="T207">
-        <v>5682238</v>
+        <v>5582238</v>
       </c>
       <c r="U207">
-        <v>-526738</v>
+        <v>-248447</v>
       </c>
       <c r="V207">
         <v>0</v>
@@ -21212,7 +21212,7 @@
         <v>0</v>
       </c>
       <c r="AA207">
-        <v>5890611</v>
+        <v>5527724</v>
       </c>
       <c r="AB207"/>
       <c r="AC207" t="s">
@@ -21247,10 +21247,10 @@
         <v>39</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="s">
-        <v>533</v>
+        <v>288</v>
       </c>
       <c r="J208"/>
       <c r="K208">
@@ -21284,7 +21284,7 @@
         <v>5582238</v>
       </c>
       <c r="U208">
-        <v>-248447</v>
+        <v>0</v>
       </c>
       <c r="V208">
         <v>0</v>
@@ -21302,7 +21302,7 @@
         <v>0</v>
       </c>
       <c r="AA208">
-        <v>5527724</v>
+        <v>5359288</v>
       </c>
       <c r="AB208"/>
       <c r="AC208" t="s">
@@ -21337,10 +21337,10 @@
         <v>39</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="s">
-        <v>288</v>
+        <v>804</v>
       </c>
       <c r="J209"/>
       <c r="K209">
@@ -21374,7 +21374,7 @@
         <v>5582238</v>
       </c>
       <c r="U209">
-        <v>0</v>
+        <v>-260869</v>
       </c>
       <c r="V209">
         <v>0</v>
@@ -21392,7 +21392,7 @@
         <v>0</v>
       </c>
       <c r="AA209">
-        <v>5359288</v>
+        <v>5604759</v>
       </c>
       <c r="AB209"/>
       <c r="AC209" t="s">
@@ -21401,7 +21401,7 @@
       <c r="AD209"/>
       <c r="AE209"/>
       <c r="AF209" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
     </row>
     <row r="210" spans="1:32">
@@ -21409,10 +21409,10 @@
         <v>203</v>
       </c>
       <c r="B210" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="C210" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D210" t="s">
         <v>283</v>
@@ -21424,17 +21424,17 @@
         <v>38</v>
       </c>
       <c r="G210" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H210">
         <v>0</v>
       </c>
       <c r="I210" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="J210"/>
       <c r="K210">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L210">
         <v>5067381</v>
@@ -21464,7 +21464,7 @@
         <v>5582238</v>
       </c>
       <c r="U210">
-        <v>-260869</v>
+        <v>834780</v>
       </c>
       <c r="V210">
         <v>0</v>
@@ -21479,10 +21479,10 @@
         <v>0</v>
       </c>
       <c r="Z210">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA210">
-        <v>5604759</v>
+        <v>4382597</v>
       </c>
       <c r="AB210"/>
       <c r="AC210" t="s">
@@ -21491,7 +21491,7 @@
       <c r="AD210"/>
       <c r="AE210"/>
       <c r="AF210" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
     </row>
     <row r="211" spans="1:32">
@@ -21499,10 +21499,10 @@
         <v>204</v>
       </c>
       <c r="B211" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="C211" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="D211" t="s">
         <v>283</v>
@@ -21514,17 +21514,17 @@
         <v>38</v>
       </c>
       <c r="G211" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H211">
         <v>0</v>
       </c>
       <c r="I211" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="J211"/>
       <c r="K211">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L211">
         <v>5067381</v>
@@ -21554,13 +21554,13 @@
         <v>5582238</v>
       </c>
       <c r="U211">
-        <v>834780</v>
+        <v>-521738</v>
       </c>
       <c r="V211">
         <v>0</v>
       </c>
       <c r="W211">
-        <v>0</v>
+        <v>50000.0</v>
       </c>
       <c r="X211">
         <v>0</v>
@@ -21569,10 +21569,10 @@
         <v>0</v>
       </c>
       <c r="Z211">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AA211">
-        <v>4382597</v>
+        <v>5708608</v>
       </c>
       <c r="AB211"/>
       <c r="AC211" t="s">
@@ -21581,7 +21581,7 @@
       <c r="AD211"/>
       <c r="AE211"/>
       <c r="AF211" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
     </row>
     <row r="212" spans="1:32">
@@ -21589,13 +21589,13 @@
         <v>205</v>
       </c>
       <c r="B212" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="C212" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="D212" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="E212" t="s">
         <v>278</v>
@@ -21604,13 +21604,13 @@
         <v>38</v>
       </c>
       <c r="G212" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H212">
         <v>0</v>
       </c>
       <c r="I212" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="J212"/>
       <c r="K212">
@@ -21620,7 +21620,7 @@
         <v>5067381</v>
       </c>
       <c r="M212">
-        <v>150000</v>
+        <v>300000</v>
       </c>
       <c r="N212">
         <v>0</v>
@@ -21638,19 +21638,19 @@
         <v>0</v>
       </c>
       <c r="S212">
-        <v>150000</v>
+        <v>300000</v>
       </c>
       <c r="T212">
-        <v>5582238</v>
+        <v>5882238</v>
       </c>
       <c r="U212">
-        <v>-521738</v>
+        <v>511180</v>
       </c>
       <c r="V212">
         <v>0</v>
       </c>
       <c r="W212">
-        <v>50000.0</v>
+        <v>0</v>
       </c>
       <c r="X212">
         <v>0</v>
@@ -21659,10 +21659,10 @@
         <v>0</v>
       </c>
       <c r="Z212">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA212">
-        <v>5708608</v>
+        <v>5012199</v>
       </c>
       <c r="AB212"/>
       <c r="AC212" t="s">
@@ -21671,7 +21671,7 @@
       <c r="AD212"/>
       <c r="AE212"/>
       <c r="AF212" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="213" spans="1:32">
@@ -21679,13 +21679,13 @@
         <v>206</v>
       </c>
       <c r="B213" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="C213" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="D213" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E213" t="s">
         <v>278</v>
@@ -21700,7 +21700,7 @@
         <v>0</v>
       </c>
       <c r="I213" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="J213"/>
       <c r="K213">
@@ -21710,7 +21710,7 @@
         <v>5067381</v>
       </c>
       <c r="M213">
-        <v>300000</v>
+        <v>150000</v>
       </c>
       <c r="N213">
         <v>0</v>
@@ -21728,13 +21728,13 @@
         <v>0</v>
       </c>
       <c r="S213">
-        <v>300000</v>
+        <v>150000</v>
       </c>
       <c r="T213">
-        <v>5882238</v>
+        <v>5582238</v>
       </c>
       <c r="U213">
-        <v>511180</v>
+        <v>-745341</v>
       </c>
       <c r="V213">
         <v>0</v>
@@ -21749,10 +21749,10 @@
         <v>0</v>
       </c>
       <c r="Z213">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA213">
-        <v>5012199</v>
+        <v>6119245</v>
       </c>
       <c r="AB213"/>
       <c r="AC213" t="s">
@@ -21790,7 +21790,7 @@
         <v>0</v>
       </c>
       <c r="I214" t="s">
-        <v>819</v>
+        <v>823</v>
       </c>
       <c r="J214"/>
       <c r="K214">
@@ -21824,7 +21824,7 @@
         <v>5582238</v>
       </c>
       <c r="U214">
-        <v>-745341</v>
+        <v>-237154</v>
       </c>
       <c r="V214">
         <v>0</v>
@@ -21833,16 +21833,16 @@
         <v>0</v>
       </c>
       <c r="X214">
-        <v>0</v>
+        <v>450000</v>
       </c>
       <c r="Y214">
         <v>0</v>
       </c>
       <c r="Z214">
-        <v>0</v>
+        <v>450000</v>
       </c>
       <c r="AA214">
-        <v>6119245</v>
+        <v>5195837</v>
       </c>
       <c r="AB214"/>
       <c r="AC214" t="s">
@@ -21851,7 +21851,7 @@
       <c r="AD214"/>
       <c r="AE214"/>
       <c r="AF214" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
     </row>
     <row r="215" spans="1:32">
@@ -21859,10 +21859,10 @@
         <v>208</v>
       </c>
       <c r="B215" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="C215" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D215" t="s">
         <v>283</v>
@@ -21880,11 +21880,11 @@
         <v>0</v>
       </c>
       <c r="I215" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="J215"/>
       <c r="K215">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L215">
         <v>5067381</v>
@@ -21920,7 +21920,7 @@
         <v>0</v>
       </c>
       <c r="W215">
-        <v>0</v>
+        <v>50000.0</v>
       </c>
       <c r="X215">
         <v>450000</v>
@@ -21932,7 +21932,7 @@
         <v>450000</v>
       </c>
       <c r="AA215">
-        <v>5195837</v>
+        <v>5094097</v>
       </c>
       <c r="AB215"/>
       <c r="AC215" t="s">
@@ -21941,7 +21941,7 @@
       <c r="AD215"/>
       <c r="AE215"/>
       <c r="AF215" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
     </row>
     <row r="216" spans="1:32">
@@ -21949,13 +21949,13 @@
         <v>209</v>
       </c>
       <c r="B216" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="C216" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="D216" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="E216" t="s">
         <v>278</v>
@@ -21970,7 +21970,7 @@
         <v>0</v>
       </c>
       <c r="I216" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="J216"/>
       <c r="K216">
@@ -21980,7 +21980,7 @@
         <v>5067381</v>
       </c>
       <c r="M216">
-        <v>150000</v>
+        <v>200000</v>
       </c>
       <c r="N216">
         <v>0</v>
@@ -21998,19 +21998,19 @@
         <v>0</v>
       </c>
       <c r="S216">
-        <v>150000</v>
+        <v>200000</v>
       </c>
       <c r="T216">
-        <v>5582238</v>
+        <v>5682238</v>
       </c>
       <c r="U216">
-        <v>-237154</v>
+        <v>0</v>
       </c>
       <c r="V216">
         <v>0</v>
       </c>
       <c r="W216">
-        <v>50000.0</v>
+        <v>0</v>
       </c>
       <c r="X216">
         <v>450000</v>
@@ -22022,7 +22022,7 @@
         <v>450000</v>
       </c>
       <c r="AA216">
-        <v>5094097</v>
+        <v>4881358</v>
       </c>
       <c r="AB216"/>
       <c r="AC216" t="s">
@@ -22031,7 +22031,7 @@
       <c r="AD216"/>
       <c r="AE216"/>
       <c r="AF216" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="217" spans="1:32">
@@ -22039,10 +22039,10 @@
         <v>210</v>
       </c>
       <c r="B217" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="C217" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="D217" t="s">
         <v>292</v>
@@ -22060,11 +22060,11 @@
         <v>0</v>
       </c>
       <c r="I217" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="J217"/>
       <c r="K217">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L217">
         <v>5067381</v>
@@ -22094,7 +22094,7 @@
         <v>5682238</v>
       </c>
       <c r="U217">
-        <v>0</v>
+        <v>-526738</v>
       </c>
       <c r="V217">
         <v>0</v>
@@ -22112,7 +22112,7 @@
         <v>450000</v>
       </c>
       <c r="AA217">
-        <v>4881358</v>
+        <v>5363196</v>
       </c>
       <c r="AB217"/>
       <c r="AC217" t="s">
@@ -22144,13 +22144,13 @@
         <v>38</v>
       </c>
       <c r="G218" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H218">
         <v>0</v>
       </c>
       <c r="I218" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
       <c r="J218"/>
       <c r="K218">
@@ -22184,7 +22184,7 @@
         <v>5682238</v>
       </c>
       <c r="U218">
-        <v>-526738</v>
+        <v>-263369</v>
       </c>
       <c r="V218">
         <v>0</v>
@@ -22202,7 +22202,7 @@
         <v>450000</v>
       </c>
       <c r="AA218">
-        <v>5363196</v>
+        <v>5116451</v>
       </c>
       <c r="AB218"/>
       <c r="AC218" t="s">
@@ -22211,7 +22211,7 @@
       <c r="AD218"/>
       <c r="AE218"/>
       <c r="AF218" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="219" spans="1:32">
@@ -22219,13 +22219,13 @@
         <v>212</v>
       </c>
       <c r="B219" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="C219" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="D219" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="E219" t="s">
         <v>278</v>
@@ -22234,23 +22234,23 @@
         <v>38</v>
       </c>
       <c r="G219" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H219">
         <v>0</v>
       </c>
       <c r="I219" t="s">
-        <v>841</v>
+        <v>206</v>
       </c>
       <c r="J219"/>
       <c r="K219">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L219">
         <v>5067381</v>
       </c>
       <c r="M219">
-        <v>200000</v>
+        <v>150000</v>
       </c>
       <c r="N219">
         <v>0</v>
@@ -22268,13 +22268,13 @@
         <v>0</v>
       </c>
       <c r="S219">
-        <v>200000</v>
+        <v>150000</v>
       </c>
       <c r="T219">
-        <v>5682238</v>
+        <v>5582238</v>
       </c>
       <c r="U219">
-        <v>-263369</v>
+        <v>-782607</v>
       </c>
       <c r="V219">
         <v>0</v>
@@ -22283,16 +22283,16 @@
         <v>0</v>
       </c>
       <c r="X219">
-        <v>450000</v>
+        <v>0</v>
       </c>
       <c r="Y219">
         <v>0</v>
       </c>
       <c r="Z219">
-        <v>450000</v>
+        <v>0</v>
       </c>
       <c r="AA219">
-        <v>5116451</v>
+        <v>6078918</v>
       </c>
       <c r="AB219"/>
       <c r="AC219" t="s">
@@ -22309,10 +22309,10 @@
         <v>213</v>
       </c>
       <c r="B220" t="s">
+        <v>271</v>
+      </c>
+      <c r="C220" t="s">
         <v>843</v>
-      </c>
-      <c r="C220" t="s">
-        <v>844</v>
       </c>
       <c r="D220" t="s">
         <v>283</v>
@@ -22324,13 +22324,13 @@
         <v>38</v>
       </c>
       <c r="G220" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H220">
         <v>0</v>
       </c>
       <c r="I220" t="s">
-        <v>206</v>
+        <v>588</v>
       </c>
       <c r="J220"/>
       <c r="K220">
@@ -22364,13 +22364,13 @@
         <v>5582238</v>
       </c>
       <c r="U220">
-        <v>-782607</v>
+        <v>226843</v>
       </c>
       <c r="V220">
         <v>0</v>
       </c>
       <c r="W220">
-        <v>0</v>
+        <v>50000.0</v>
       </c>
       <c r="X220">
         <v>0</v>
@@ -22379,10 +22379,10 @@
         <v>0</v>
       </c>
       <c r="Z220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA220">
-        <v>6078918</v>
+        <v>4940537</v>
       </c>
       <c r="AB220"/>
       <c r="AC220" t="s">
@@ -22391,7 +22391,7 @@
       <c r="AD220"/>
       <c r="AE220"/>
       <c r="AF220" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="221" spans="1:32">
@@ -22399,7 +22399,7 @@
         <v>214</v>
       </c>
       <c r="B221" t="s">
-        <v>271</v>
+        <v>845</v>
       </c>
       <c r="C221" t="s">
         <v>846</v>
@@ -22420,7 +22420,7 @@
         <v>0</v>
       </c>
       <c r="I221" t="s">
-        <v>591</v>
+        <v>847</v>
       </c>
       <c r="J221"/>
       <c r="K221">
@@ -22454,13 +22454,13 @@
         <v>5582238</v>
       </c>
       <c r="U221">
-        <v>226843</v>
+        <v>0</v>
       </c>
       <c r="V221">
         <v>0</v>
       </c>
       <c r="W221">
-        <v>50000.0</v>
+        <v>0</v>
       </c>
       <c r="X221">
         <v>0</v>
@@ -22469,10 +22469,10 @@
         <v>0</v>
       </c>
       <c r="Z221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA221">
-        <v>4940537</v>
+        <v>5359288</v>
       </c>
       <c r="AB221"/>
       <c r="AC221" t="s">
@@ -22481,7 +22481,7 @@
       <c r="AD221"/>
       <c r="AE221"/>
       <c r="AF221" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
     </row>
     <row r="222" spans="1:32">
@@ -22489,13 +22489,13 @@
         <v>215</v>
       </c>
       <c r="B222" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C222" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="D222" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="E222" t="s">
         <v>278</v>
@@ -22507,20 +22507,20 @@
         <v>39</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I222" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="J222"/>
       <c r="K222">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="L222">
         <v>5067381</v>
       </c>
       <c r="M222">
-        <v>150000</v>
+        <v>200000</v>
       </c>
       <c r="N222">
         <v>0</v>
@@ -22535,13 +22535,13 @@
         <v>0</v>
       </c>
       <c r="R222">
-        <v>0</v>
+        <v>229017</v>
       </c>
       <c r="S222">
-        <v>150000</v>
+        <v>200000</v>
       </c>
       <c r="T222">
-        <v>5582238</v>
+        <v>5911255</v>
       </c>
       <c r="U222">
         <v>0</v>
@@ -22562,7 +22562,7 @@
         <v>0</v>
       </c>
       <c r="AA222">
-        <v>5359288</v>
+        <v>5853173</v>
       </c>
       <c r="AB222"/>
       <c r="AC222" t="s">
@@ -22571,7 +22571,7 @@
       <c r="AD222"/>
       <c r="AE222"/>
       <c r="AF222" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
     </row>
     <row r="223" spans="1:32">
@@ -22579,13 +22579,13 @@
         <v>216</v>
       </c>
       <c r="B223" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="C223" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="D223" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="E223" t="s">
         <v>278</v>
@@ -22597,10 +22597,10 @@
         <v>39</v>
       </c>
       <c r="H223">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I223" t="s">
-        <v>854</v>
+        <v>288</v>
       </c>
       <c r="J223"/>
       <c r="K223">
@@ -22610,7 +22610,7 @@
         <v>5067381</v>
       </c>
       <c r="M223">
-        <v>200000</v>
+        <v>150000</v>
       </c>
       <c r="N223">
         <v>0</v>
@@ -22625,13 +22625,13 @@
         <v>0</v>
       </c>
       <c r="R223">
-        <v>229017</v>
+        <v>0</v>
       </c>
       <c r="S223">
-        <v>200000</v>
+        <v>150000</v>
       </c>
       <c r="T223">
-        <v>5911255</v>
+        <v>5582238</v>
       </c>
       <c r="U223">
         <v>0</v>
@@ -22652,7 +22652,7 @@
         <v>0</v>
       </c>
       <c r="AA223">
-        <v>5853173</v>
+        <v>5359288</v>
       </c>
       <c r="AB223"/>
       <c r="AC223" t="s">
@@ -22675,10 +22675,10 @@
         <v>857</v>
       </c>
       <c r="D224" t="s">
-        <v>283</v>
+        <v>51</v>
       </c>
       <c r="E224" t="s">
-        <v>278</v>
+        <v>45</v>
       </c>
       <c r="F224" t="s">
         <v>38</v>
@@ -22690,17 +22690,17 @@
         <v>0</v>
       </c>
       <c r="I224" t="s">
-        <v>288</v>
+        <v>858</v>
       </c>
       <c r="J224"/>
       <c r="K224">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="L224">
-        <v>5067381</v>
+        <v>4140973</v>
       </c>
       <c r="M224">
-        <v>150000</v>
+        <v>400000</v>
       </c>
       <c r="N224">
         <v>0</v>
@@ -22709,7 +22709,7 @@
         <v>0</v>
       </c>
       <c r="P224">
-        <v>214857</v>
+        <v>193931</v>
       </c>
       <c r="Q224">
         <v>0</v>
@@ -22718,19 +22718,19 @@
         <v>0</v>
       </c>
       <c r="S224">
-        <v>150000</v>
+        <v>0</v>
       </c>
       <c r="T224">
-        <v>5582238</v>
+        <v>4734904</v>
       </c>
       <c r="U224">
-        <v>0</v>
+        <v>-285903</v>
       </c>
       <c r="V224">
         <v>0</v>
       </c>
       <c r="W224">
-        <v>0</v>
+        <v>50000.0</v>
       </c>
       <c r="X224">
         <v>0</v>
@@ -22742,7 +22742,7 @@
         <v>0</v>
       </c>
       <c r="AA224">
-        <v>5359288</v>
+        <v>235903</v>
       </c>
       <c r="AB224"/>
       <c r="AC224" t="s">
@@ -22751,7 +22751,7 @@
       <c r="AD224"/>
       <c r="AE224"/>
       <c r="AF224" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
     </row>
     <row r="225" spans="1:32">
@@ -22759,38 +22759,38 @@
         <v>218</v>
       </c>
       <c r="B225" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="C225" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="D225" t="s">
-        <v>51</v>
+        <v>283</v>
       </c>
       <c r="E225" t="s">
-        <v>45</v>
+        <v>278</v>
       </c>
       <c r="F225" t="s">
         <v>38</v>
       </c>
       <c r="G225" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H225">
         <v>0</v>
       </c>
       <c r="I225" t="s">
-        <v>861</v>
+        <v>812</v>
       </c>
       <c r="J225"/>
       <c r="K225">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L225">
-        <v>4140973</v>
+        <v>5067381</v>
       </c>
       <c r="M225">
-        <v>400000</v>
+        <v>150000</v>
       </c>
       <c r="N225">
         <v>0</v>
@@ -22799,7 +22799,7 @@
         <v>0</v>
       </c>
       <c r="P225">
-        <v>193931</v>
+        <v>214857</v>
       </c>
       <c r="Q225">
         <v>0</v>
@@ -22808,13 +22808,13 @@
         <v>0</v>
       </c>
       <c r="S225">
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="T225">
-        <v>4734904</v>
+        <v>5582238</v>
       </c>
       <c r="U225">
-        <v>-285903</v>
+        <v>-260869</v>
       </c>
       <c r="V225">
         <v>0</v>
@@ -22832,7 +22832,7 @@
         <v>0</v>
       </c>
       <c r="AA225">
-        <v>235903</v>
+        <v>5506250</v>
       </c>
       <c r="AB225"/>
       <c r="AC225" t="s">
@@ -22855,32 +22855,32 @@
         <v>864</v>
       </c>
       <c r="D226" t="s">
-        <v>283</v>
+        <v>450</v>
       </c>
       <c r="E226" t="s">
-        <v>278</v>
+        <v>441</v>
       </c>
       <c r="F226" t="s">
         <v>38</v>
       </c>
       <c r="G226" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H226">
         <v>0</v>
       </c>
       <c r="I226" t="s">
-        <v>815</v>
+        <v>107</v>
       </c>
       <c r="J226"/>
       <c r="K226">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L226">
         <v>5067381</v>
       </c>
       <c r="M226">
-        <v>150000</v>
+        <v>0</v>
       </c>
       <c r="N226">
         <v>0</v>
@@ -22889,7 +22889,7 @@
         <v>0</v>
       </c>
       <c r="P226">
-        <v>214857</v>
+        <v>207836</v>
       </c>
       <c r="Q226">
         <v>0</v>
@@ -22898,31 +22898,31 @@
         <v>0</v>
       </c>
       <c r="S226">
-        <v>150000</v>
+        <v>0</v>
       </c>
       <c r="T226">
-        <v>5582238</v>
+        <v>5275217</v>
       </c>
       <c r="U226">
-        <v>-260869</v>
+        <v>224413</v>
       </c>
       <c r="V226">
         <v>0</v>
       </c>
       <c r="W226">
-        <v>50000.0</v>
+        <v>0</v>
       </c>
       <c r="X226">
-        <v>0</v>
+        <v>450000</v>
       </c>
       <c r="Y226">
         <v>0</v>
       </c>
       <c r="Z226">
-        <v>0</v>
+        <v>450001</v>
       </c>
       <c r="AA226">
-        <v>5506250</v>
+        <v>4038250</v>
       </c>
       <c r="AB226"/>
       <c r="AC226" t="s">
@@ -23117,7 +23117,7 @@
         <v>322</v>
       </c>
       <c r="I4" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="J4">
         <v>174137.25</v>
@@ -23163,13 +23163,13 @@
         <v>875</v>
       </c>
       <c r="C6" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="D6" t="s">
         <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="F6" t="s">
         <v>876</v>
@@ -23178,7 +23178,7 @@
         <v>36</v>
       </c>
       <c r="H6" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="I6" t="s">
         <v>874</v>
@@ -23227,13 +23227,13 @@
         <v>875</v>
       </c>
       <c r="C8" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="D8" t="s">
         <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="F8" t="s">
         <v>876</v>
@@ -23242,7 +23242,7 @@
         <v>36</v>
       </c>
       <c r="H8" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="I8" t="s">
         <v>879</v>
@@ -23259,13 +23259,13 @@
         <v>875</v>
       </c>
       <c r="C9" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="D9" t="s">
         <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="F9" t="s">
         <v>876</v>
@@ -23274,7 +23274,7 @@
         <v>36</v>
       </c>
       <c r="H9" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="I9" t="s">
         <v>880</v>
@@ -23291,13 +23291,13 @@
         <v>875</v>
       </c>
       <c r="C10" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="D10" t="s">
         <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="F10" t="s">
         <v>876</v>
@@ -23306,7 +23306,7 @@
         <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="I10" t="s">
         <v>881</v>
@@ -23373,7 +23373,7 @@
         <v>356</v>
       </c>
       <c r="I12" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="J12">
         <v>213875.5</v>
@@ -23384,10 +23384,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="C13" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="D13" t="s">
         <v>283</v>
@@ -23396,7 +23396,7 @@
         <v>278</v>
       </c>
       <c r="F13" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="G13" t="s">
         <v>283</v>
@@ -23416,10 +23416,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="C14" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="D14" t="s">
         <v>292</v>
@@ -23428,7 +23428,7 @@
         <v>278</v>
       </c>
       <c r="F14" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="G14" t="s">
         <v>292</v>
@@ -23547,13 +23547,13 @@
         <v>886</v>
       </c>
       <c r="C18" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="D18" t="s">
         <v>51</v>
       </c>
       <c r="E18" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="F18" t="s">
         <v>876</v>
@@ -23562,7 +23562,7 @@
         <v>36</v>
       </c>
       <c r="H18" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="I18" t="s">
         <v>885</v>
@@ -23643,13 +23643,13 @@
         <v>875</v>
       </c>
       <c r="C21" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="D21" t="s">
         <v>36</v>
       </c>
       <c r="E21" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="F21" t="s">
         <v>876</v>
@@ -23658,7 +23658,7 @@
         <v>36</v>
       </c>
       <c r="H21" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="I21" t="s">
         <v>881</v>
@@ -23675,7 +23675,7 @@
         <v>875</v>
       </c>
       <c r="C22" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="D22" t="s">
         <v>36</v>
@@ -23690,7 +23690,7 @@
         <v>36</v>
       </c>
       <c r="H22" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="I22" t="s">
         <v>889</v>
@@ -23704,10 +23704,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="C23" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="D23" t="s">
         <v>292</v>
@@ -23716,7 +23716,7 @@
         <v>888</v>
       </c>
       <c r="F23" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="G23" t="s">
         <v>283</v>
@@ -23780,7 +23780,7 @@
         <v>888</v>
       </c>
       <c r="F25" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="G25" t="s">
         <v>36</v>
@@ -23876,7 +23876,7 @@
         <v>888</v>
       </c>
       <c r="F28" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="G28" t="s">
         <v>450</v>
